--- a/Execucoes Gerais/novo_final_comparativo_real2PDS_vs_real2PDSAA_1M.xlsx
+++ b/Execucoes Gerais/novo_final_comparativo_real2PDS_vs_real2PDSAA_1M.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22770" windowHeight="12540"/>
+    <workbookView windowWidth="14460" windowHeight="7860" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="GRI" sheetId="1" r:id="rId1"/>
@@ -164,9 +164,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="20">
@@ -178,17 +178,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -203,21 +194,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -225,6 +210,14 @@
     <font>
       <b/>
       <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -247,16 +240,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -270,14 +263,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="Calibri"/>
@@ -286,7 +271,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -294,6 +294,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -308,17 +316,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -331,7 +331,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -343,175 +511,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -522,45 +522,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -581,11 +542,33 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -607,6 +590,17 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
@@ -614,11 +608,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -627,148 +627,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1767,7 +1767,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="pt-PT" altLang="en-US"/>
-                  <a:t>NFE</a:t>
+                  <a:t>Número de avaliações da função objetivo</a:t>
                 </a:r>
                 <a:endParaRPr lang="pt-PT" altLang="en-US"/>
               </a:p>
@@ -1777,7 +1777,7 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.521536243298832"/>
+              <c:x val="0.237808641975309"/>
               <c:y val="0.916674844831117"/>
             </c:manualLayout>
           </c:layout>
@@ -2912,7 +2912,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="pt-PT" altLang="en-US"/>
-                  <a:t>NFE</a:t>
+                  <a:t>Número de avaliações da função objetivo</a:t>
                 </a:r>
                 <a:endParaRPr lang="pt-PT" altLang="en-US"/>
               </a:p>
@@ -2922,8 +2922,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.521536243298832"/>
-              <c:y val="0.916674844831117"/>
+              <c:x val="0.236882716049383"/>
+              <c:y val="0.909730400386673"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -4057,7 +4057,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="pt-PT" altLang="en-US"/>
-                  <a:t>NFE</a:t>
+                  <a:t>Número de avaliações da função objetivo</a:t>
                 </a:r>
                 <a:endParaRPr lang="pt-PT" altLang="en-US"/>
               </a:p>
@@ -4067,8 +4067,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.521536243298832"/>
-              <c:y val="0.916674844831117"/>
+              <c:x val="0.239197530864198"/>
+              <c:y val="0.923619289275561"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -5202,7 +5202,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="pt-PT" altLang="en-US"/>
-                  <a:t>NFE</a:t>
+                  <a:t>Número de avaliações da função objetivo</a:t>
                 </a:r>
                 <a:endParaRPr lang="pt-PT" altLang="en-US"/>
               </a:p>
@@ -5212,8 +5212,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.521536243298832"/>
-              <c:y val="0.916674844831117"/>
+              <c:x val="0.242438271604938"/>
+              <c:y val="0.924537037037037"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -6346,7 +6346,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="pt-PT" altLang="en-US"/>
-                  <a:t>NFE</a:t>
+                  <a:t>Número de avaliações da função objetivo</a:t>
                 </a:r>
                 <a:endParaRPr lang="pt-PT" altLang="en-US"/>
               </a:p>
@@ -6356,8 +6356,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.521536243298832"/>
-              <c:y val="0.916674844831117"/>
+              <c:x val="0.243827160493827"/>
+              <c:y val="0.920147067053339"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -7491,7 +7491,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="pt-PT" altLang="en-US"/>
-                  <a:t>NFE</a:t>
+                  <a:t>Número de avaliações da função objetivo</a:t>
                 </a:r>
                 <a:endParaRPr lang="pt-PT" altLang="en-US"/>
               </a:p>
@@ -7501,7 +7501,7 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.521536243298832"/>
+              <c:x val="0.236882716049383"/>
               <c:y val="0.916674844831117"/>
             </c:manualLayout>
           </c:layout>
@@ -11081,6 +11081,48 @@
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>955040</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>108585</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 82"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="2602865" cy="1737360"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -13033,7 +13075,7 @@
   <sheetPr/>
   <dimension ref="A1:I86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+    <sheetView topLeftCell="A58" workbookViewId="0">
       <selection activeCell="A76" sqref="A76:A85"/>
     </sheetView>
   </sheetViews>
@@ -14618,7 +14660,7 @@
   <sheetPr/>
   <dimension ref="A1:I85"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" workbookViewId="0">
+    <sheetView topLeftCell="A55" workbookViewId="0">
       <selection activeCell="A1" sqref="A1:A58"/>
     </sheetView>
   </sheetViews>
@@ -15399,7 +15441,7 @@
   <sheetPr/>
   <dimension ref="A1:I85"/>
   <sheetViews>
-    <sheetView topLeftCell="A55" workbookViewId="0">
+    <sheetView topLeftCell="A61" workbookViewId="0">
       <selection activeCell="A76" sqref="A76:A85"/>
     </sheetView>
   </sheetViews>
@@ -16180,7 +16222,7 @@
   <sheetPr/>
   <dimension ref="A1:H85"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" workbookViewId="0">
+    <sheetView topLeftCell="A58" workbookViewId="0">
       <selection activeCell="A76" sqref="A76:A85"/>
     </sheetView>
   </sheetViews>
@@ -16952,7 +16994,7 @@
   <sheetPr/>
   <dimension ref="A1:K87"/>
   <sheetViews>
-    <sheetView topLeftCell="A45" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A57" workbookViewId="0">
       <selection activeCell="A87" sqref="A87"/>
     </sheetView>
   </sheetViews>

--- a/Execucoes Gerais/novo_final_comparativo_real2PDS_vs_real2PDSAA_1M.xlsx
+++ b/Execucoes Gerais/novo_final_comparativo_real2PDS_vs_real2PDSAA_1M.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="14460" windowHeight="7860" activeTab="5"/>
+    <workbookView windowWidth="19485" windowHeight="7860" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="GRI" sheetId="1" r:id="rId1"/>
@@ -13,13 +13,14 @@
     <sheet name="SCH" sheetId="4" r:id="rId4"/>
     <sheet name="ACK" sheetId="5" r:id="rId5"/>
     <sheet name="BEA" sheetId="6" r:id="rId6"/>
+    <sheet name="Sheet1" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="57">
   <si>
     <t>NFE</t>
   </si>
@@ -27,7 +28,7 @@
     <t>GEOreal2_P_DS</t>
   </si>
   <si>
-    <t>AGEO2real2_P_AA_p3</t>
+    <t>AGEO2real2_AA3</t>
   </si>
   <si>
     <t>============================================================================</t>
@@ -158,23 +159,85 @@
   <si>
     <t>Execution Time: 1272 s</t>
   </si>
+  <si>
+    <t>Algoritmo</t>
+  </si>
+  <si>
+    <t>GRI</t>
+  </si>
+  <si>
+    <t>RAS</t>
+  </si>
+  <si>
+    <t>ROS</t>
+  </si>
+  <si>
+    <t>SCH</t>
+  </si>
+  <si>
+    <t>ACK</t>
+  </si>
+  <si>
+    <t>BEA</t>
+  </si>
+  <si>
+    <t>100 k</t>
+  </si>
+  <si>
+    <t>1 MI</t>
+  </si>
+  <si>
+    <t>A-GEO2real2_AA3</t>
+  </si>
+  <si>
+    <t>100MI</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="9"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -193,8 +256,46 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -209,24 +310,8 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -241,15 +326,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -278,22 +363,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -306,23 +376,8 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -331,7 +386,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -343,13 +512,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -361,37 +560,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -403,115 +572,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -522,6 +583,24 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -540,20 +619,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -573,21 +649,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -602,8 +663,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -627,154 +688,175 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1330,7 +1412,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>AGEO2real2_P_AA_p3</c:v>
+                  <c:v>AGEO2real2_AA3</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2475,7 +2557,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>AGEO2real2_P_AA_p3</c:v>
+                  <c:v>AGEO2real2_AA3</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3620,7 +3702,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>AGEO2real2_P_AA_p3</c:v>
+                  <c:v>AGEO2real2_AA3</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4765,7 +4847,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>AGEO2real2_P_AA_p3</c:v>
+                  <c:v>AGEO2real2_AA3</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5109,55 +5191,55 @@
                 <c:pt idx="39">
                   <c:v>4.73766066024494</c:v>
                 </c:pt>
-                <c:pt idx="40">
+                <c:pt idx="40" c:formatCode="0.00E+00">
                   <c:v>0.000127275665399793</c:v>
                 </c:pt>
-                <c:pt idx="41">
+                <c:pt idx="41" c:formatCode="0.00E+00">
                   <c:v>0.000127275665163324</c:v>
                 </c:pt>
-                <c:pt idx="42">
+                <c:pt idx="42" c:formatCode="0.00E+00">
                   <c:v>0.000127275665017805</c:v>
                 </c:pt>
-                <c:pt idx="43">
+                <c:pt idx="43" c:formatCode="0.00E+00">
                   <c:v>0.000127275664926855</c:v>
                 </c:pt>
-                <c:pt idx="44">
+                <c:pt idx="44" c:formatCode="0.00E+00">
                   <c:v>0.000127275664781336</c:v>
                 </c:pt>
-                <c:pt idx="45">
+                <c:pt idx="45" c:formatCode="0.00E+00">
                   <c:v>0.000127275664544868</c:v>
                 </c:pt>
-                <c:pt idx="46">
+                <c:pt idx="46" c:formatCode="0.00E+00">
                   <c:v>0.000127275664490298</c:v>
                 </c:pt>
-                <c:pt idx="47">
+                <c:pt idx="47" c:formatCode="0.00E+00">
                   <c:v>0.000127275664435728</c:v>
                 </c:pt>
-                <c:pt idx="48">
+                <c:pt idx="48" c:formatCode="0.00E+00">
                   <c:v>0.000127275664326589</c:v>
                 </c:pt>
-                <c:pt idx="49">
+                <c:pt idx="49" c:formatCode="0.00E+00">
                   <c:v>0.000127275664290209</c:v>
                 </c:pt>
-                <c:pt idx="50">
+                <c:pt idx="50" c:formatCode="0.00E+00">
                   <c:v>0.000127275664235639</c:v>
                 </c:pt>
-                <c:pt idx="51">
+                <c:pt idx="51" c:formatCode="0.00E+00">
                   <c:v>0.00012727566419926</c:v>
                 </c:pt>
-                <c:pt idx="52">
+                <c:pt idx="52" c:formatCode="0.00E+00">
                   <c:v>0.00012727566410831</c:v>
                 </c:pt>
-                <c:pt idx="53">
+                <c:pt idx="53" c:formatCode="0.00E+00">
                   <c:v>0.00012727566409012</c:v>
                 </c:pt>
-                <c:pt idx="54">
+                <c:pt idx="54" c:formatCode="0.00E+00">
                   <c:v>0.000127275663980981</c:v>
                 </c:pt>
-                <c:pt idx="55">
+                <c:pt idx="55" c:formatCode="0.00E+00">
                   <c:v>0.000127275663980981</c:v>
                 </c:pt>
-                <c:pt idx="56">
+                <c:pt idx="56" c:formatCode="0.00E+00">
                   <c:v>0.000127275663944601</c:v>
                 </c:pt>
               </c:numCache>
@@ -5909,7 +5991,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>AGEO2real2_P_AA_p3</c:v>
+                  <c:v>AGEO2real2_AA3</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -7054,7 +7136,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>AGEO2real2_P_AA_p3</c:v>
+                  <c:v>AGEO2real2_AA3</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -11083,48 +11165,6 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>955040</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>108585</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 82"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="2602865" cy="1737360"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -11220,7 +11260,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="685800" y="10680700"/>
-        <a:ext cx="4114800" cy="2743200"/>
+        <a:ext cx="4286250" cy="2743200"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -13075,8 +13115,8 @@
   <sheetPr/>
   <dimension ref="A1:I86"/>
   <sheetViews>
-    <sheetView topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="A76" sqref="A76:A85"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -13085,783 +13125,783 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="8" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="1">
+      <c r="A2" s="8">
         <v>5</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2" s="8">
         <v>302.662172163146</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2" s="8">
         <v>278.624124583893</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="1">
+      <c r="A3" s="8">
         <v>50</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3" s="8">
         <v>301.256185759054</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="8">
         <v>259.311066255292</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="1">
+      <c r="A4" s="8">
         <v>100</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4" s="8">
         <v>300.218838876419</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="8">
         <v>258.918922433687</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="1">
+      <c r="A5" s="8">
         <v>500</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5" s="8">
         <v>273.297084461286</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" s="8">
         <v>186.554300561332</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="1">
+      <c r="A6" s="8">
         <v>1000</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6" s="8">
         <v>241.878190818088</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="8">
         <v>80.3530268436222</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="1">
+      <c r="A7" s="8">
         <v>1500</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7" s="8">
         <v>213.398177355045</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7" s="8">
         <v>36.9852247397138</v>
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="1">
+      <c r="A8" s="8">
         <v>2000</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B8" s="8">
         <v>187.164976009292</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8" s="8">
         <v>4.44185770782008</v>
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="1">
+      <c r="A9" s="8">
         <v>2500</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B9" s="8">
         <v>163.824290136324</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C9" s="8">
         <v>0.802294618314536</v>
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="1">
+      <c r="A10" s="8">
         <v>3000</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B10" s="8">
         <v>141.309800364834</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C10" s="8">
         <v>0.427048845678781</v>
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="1">
+      <c r="A11" s="8">
         <v>3500</v>
       </c>
-      <c r="B11" s="1">
+      <c r="B11" s="8">
         <v>121.818217066387</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C11" s="8">
         <v>0.250778405353796</v>
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="1">
+      <c r="A12" s="8">
         <v>4000</v>
       </c>
-      <c r="B12" s="1">
+      <c r="B12" s="8">
         <v>103.767599890572</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C12" s="8">
         <v>0.149897477698947</v>
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="1">
+      <c r="A13" s="8">
         <v>4500</v>
       </c>
-      <c r="B13" s="1">
+      <c r="B13" s="8">
         <v>87.9531010074425</v>
       </c>
-      <c r="C13" s="1">
+      <c r="C13" s="8">
         <v>0.0917283600539986</v>
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="1">
+      <c r="A14" s="8">
         <v>5000</v>
       </c>
-      <c r="B14" s="1">
+      <c r="B14" s="8">
         <v>74.4195252047718</v>
       </c>
-      <c r="C14" s="1">
+      <c r="C14" s="8">
         <v>0.0766689520060957</v>
       </c>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" s="1">
+      <c r="A15" s="8">
         <v>6000</v>
       </c>
-      <c r="B15" s="1">
+      <c r="B15" s="8">
         <v>50.6915039490012</v>
       </c>
-      <c r="C15" s="1">
+      <c r="C15" s="8">
         <v>0.0635236503320066</v>
       </c>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16" s="1">
+      <c r="A16" s="8">
         <v>7000</v>
       </c>
-      <c r="B16" s="1">
+      <c r="B16" s="8">
         <v>33.727361792655</v>
       </c>
-      <c r="C16" s="1">
+      <c r="C16" s="8">
         <v>0.0493174390235805</v>
       </c>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="1">
+      <c r="A17" s="8">
         <v>8000</v>
       </c>
-      <c r="B17" s="1">
+      <c r="B17" s="8">
         <v>21.3465338447334</v>
       </c>
-      <c r="C17" s="1">
+      <c r="C17" s="8">
         <v>0.0476908091703252</v>
       </c>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="1">
+      <c r="A18" s="8">
         <v>9000</v>
       </c>
-      <c r="B18" s="1">
+      <c r="B18" s="8">
         <v>12.6049966842939</v>
       </c>
-      <c r="C18" s="1">
+      <c r="C18" s="8">
         <v>0.043057280783836</v>
       </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="1">
+      <c r="A19" s="8">
         <v>10000</v>
       </c>
-      <c r="B19" s="1">
+      <c r="B19" s="8">
         <v>7.58517351430718</v>
       </c>
-      <c r="C19" s="1">
+      <c r="C19" s="8">
         <v>0.0409597686439235</v>
       </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="1">
+      <c r="A20" s="8">
         <v>12000</v>
       </c>
-      <c r="B20" s="1">
+      <c r="B20" s="8">
         <v>2.61613938322067</v>
       </c>
-      <c r="C20" s="1">
+      <c r="C20" s="8">
         <v>0.0380829668766781</v>
       </c>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="1">
+      <c r="A21" s="8">
         <v>14000</v>
       </c>
-      <c r="B21" s="1">
+      <c r="B21" s="8">
         <v>1.02417457627975</v>
       </c>
-      <c r="C21" s="1">
+      <c r="C21" s="8">
         <v>0.0364391857186208</v>
       </c>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" s="1">
+      <c r="A22" s="8">
         <v>16000</v>
       </c>
-      <c r="B22" s="1">
+      <c r="B22" s="8">
         <v>0.462997685185612</v>
       </c>
-      <c r="C22" s="1">
+      <c r="C22" s="8">
         <v>0.034501914186222</v>
       </c>
     </row>
     <row r="23" spans="1:3">
-      <c r="A23" s="1">
+      <c r="A23" s="8">
         <v>18000</v>
       </c>
-      <c r="B23" s="1">
+      <c r="B23" s="8">
         <v>0.193906185538193</v>
       </c>
-      <c r="C23" s="1">
+      <c r="C23" s="8">
         <v>0.0329825903919563</v>
       </c>
     </row>
     <row r="24" spans="1:3">
-      <c r="A24" s="1">
+      <c r="A24" s="8">
         <v>20000</v>
       </c>
-      <c r="B24" s="1">
+      <c r="B24" s="8">
         <v>0.103647437094881</v>
       </c>
-      <c r="C24" s="1">
+      <c r="C24" s="8">
         <v>0.0310006110158505</v>
       </c>
     </row>
     <row r="25" spans="1:3">
-      <c r="A25" s="1">
+      <c r="A25" s="8">
         <v>25000</v>
       </c>
-      <c r="B25" s="1">
+      <c r="B25" s="8">
         <v>0.0462293692602633</v>
       </c>
-      <c r="C25" s="1">
+      <c r="C25" s="8">
         <v>0.026965564736696</v>
       </c>
     </row>
     <row r="26" spans="1:3">
-      <c r="A26" s="1">
+      <c r="A26" s="8">
         <v>30000</v>
       </c>
-      <c r="B26" s="1">
+      <c r="B26" s="8">
         <v>0.0365549572170759</v>
       </c>
-      <c r="C26" s="1">
+      <c r="C26" s="8">
         <v>0.0243742922548255</v>
       </c>
     </row>
     <row r="27" spans="1:3">
-      <c r="A27" s="1">
+      <c r="A27" s="8">
         <v>35000</v>
       </c>
-      <c r="B27" s="1">
+      <c r="B27" s="8">
         <v>0.034541953603941</v>
       </c>
-      <c r="C27" s="1">
+      <c r="C27" s="8">
         <v>0.0226825229629521</v>
       </c>
     </row>
     <row r="28" spans="1:3">
-      <c r="A28" s="1">
+      <c r="A28" s="8">
         <v>40000</v>
       </c>
-      <c r="B28" s="1">
+      <c r="B28" s="8">
         <v>0.0343342495367363</v>
       </c>
-      <c r="C28" s="1">
+      <c r="C28" s="8">
         <v>0.0212115652200004</v>
       </c>
     </row>
     <row r="29" spans="1:3">
-      <c r="A29" s="1">
+      <c r="A29" s="8">
         <v>45000</v>
       </c>
-      <c r="B29" s="1">
+      <c r="B29" s="8">
         <v>0.0342852695605949</v>
       </c>
-      <c r="C29" s="1">
+      <c r="C29" s="8">
         <v>0.0205220329306166</v>
       </c>
     </row>
     <row r="30" spans="1:3">
-      <c r="A30" s="1">
+      <c r="A30" s="8">
         <v>50000</v>
       </c>
-      <c r="B30" s="1">
+      <c r="B30" s="8">
         <v>0.0321713974381121</v>
       </c>
-      <c r="C30" s="1">
+      <c r="C30" s="8">
         <v>0.0199829273740168</v>
       </c>
     </row>
     <row r="31" spans="1:3">
-      <c r="A31" s="1">
+      <c r="A31" s="8">
         <v>55000</v>
       </c>
-      <c r="B31" s="1">
+      <c r="B31" s="8">
         <v>0.0319723304836251</v>
       </c>
-      <c r="C31" s="1">
+      <c r="C31" s="8">
         <v>0.0186315886069157</v>
       </c>
     </row>
     <row r="32" spans="1:3">
-      <c r="A32" s="1">
+      <c r="A32" s="8">
         <v>60000</v>
       </c>
-      <c r="B32" s="1">
+      <c r="B32" s="8">
         <v>0.0318243382812153</v>
       </c>
-      <c r="C32" s="1">
+      <c r="C32" s="8">
         <v>0.0173739383641355</v>
       </c>
     </row>
     <row r="33" spans="1:3">
-      <c r="A33" s="1">
+      <c r="A33" s="8">
         <v>65000</v>
       </c>
-      <c r="B33" s="1">
+      <c r="B33" s="8">
         <v>0.0318242625219762</v>
       </c>
-      <c r="C33" s="1">
+      <c r="C33" s="8">
         <v>0.0171764998974401</v>
       </c>
     </row>
     <row r="34" spans="1:3">
-      <c r="A34" s="1">
+      <c r="A34" s="8">
         <v>70000</v>
       </c>
-      <c r="B34" s="1">
+      <c r="B34" s="8">
         <v>0.0318242625219752</v>
       </c>
-      <c r="C34" s="1">
+      <c r="C34" s="8">
         <v>0.0166346320185483</v>
       </c>
     </row>
     <row r="35" spans="1:3">
-      <c r="A35" s="1">
+      <c r="A35" s="8">
         <v>75000</v>
       </c>
-      <c r="B35" s="1">
+      <c r="B35" s="8">
         <v>0.0314316399530176</v>
       </c>
-      <c r="C35" s="1">
+      <c r="C35" s="8">
         <v>0.0166346276384966</v>
       </c>
     </row>
     <row r="36" spans="1:3">
-      <c r="A36" s="1">
+      <c r="A36" s="8">
         <v>80000</v>
       </c>
-      <c r="B36" s="1">
+      <c r="B36" s="8">
         <v>0.0311361918087006</v>
       </c>
-      <c r="C36" s="1">
+      <c r="C36" s="8">
         <v>0.0166346276383912</v>
       </c>
     </row>
     <row r="37" spans="1:3">
-      <c r="A37" s="1">
+      <c r="A37" s="8">
         <v>85000</v>
       </c>
-      <c r="B37" s="1">
+      <c r="B37" s="8">
         <v>0.0311361918087005</v>
       </c>
-      <c r="C37" s="1">
+      <c r="C37" s="8">
         <v>0.0153597569977518</v>
       </c>
     </row>
     <row r="38" spans="1:3">
-      <c r="A38" s="1">
+      <c r="A38" s="8">
         <v>90000</v>
       </c>
-      <c r="B38" s="1">
+      <c r="B38" s="8">
         <v>0.0311361918087004</v>
       </c>
-      <c r="C38" s="1">
+      <c r="C38" s="8">
         <v>0.0150112355477701</v>
       </c>
     </row>
     <row r="39" spans="1:3">
-      <c r="A39" s="1">
+      <c r="A39" s="8">
         <v>95000</v>
       </c>
-      <c r="B39" s="1">
+      <c r="B39" s="8">
         <v>0.031036664070621</v>
       </c>
-      <c r="C39" s="1">
+      <c r="C39" s="8">
         <v>0.0137329147264297</v>
       </c>
     </row>
     <row r="40" spans="1:3">
-      <c r="A40" s="1">
+      <c r="A40" s="8">
         <v>100000</v>
       </c>
-      <c r="B40" s="1">
+      <c r="B40" s="8">
         <v>0.0306920896796872</v>
       </c>
-      <c r="C40" s="1">
+      <c r="C40" s="8">
         <v>0.0137327574665353</v>
       </c>
     </row>
     <row r="41" spans="1:3">
-      <c r="A41" s="1">
+      <c r="A41" s="8">
         <v>150000</v>
       </c>
-      <c r="B41" s="1">
+      <c r="B41" s="8">
         <v>0.0286759738376041</v>
       </c>
-      <c r="C41" s="1">
+      <c r="C41" s="8">
         <v>0.0122555160193306</v>
       </c>
     </row>
     <row r="42" spans="1:3">
-      <c r="A42" s="1">
+      <c r="A42" s="8">
         <v>200000</v>
       </c>
-      <c r="B42" s="1">
+      <c r="B42" s="8">
         <v>0.0257752785868214</v>
       </c>
-      <c r="C42" s="1">
+      <c r="C42" s="8">
         <v>0.00954970853865755</v>
       </c>
     </row>
     <row r="43" spans="1:3">
-      <c r="A43" s="1">
+      <c r="A43" s="8">
         <v>250000</v>
       </c>
-      <c r="B43" s="1">
+      <c r="B43" s="8">
         <v>0.0230716257908699</v>
       </c>
-      <c r="C43" s="1">
+      <c r="C43" s="8">
         <v>0.00817273144915959</v>
       </c>
     </row>
     <row r="44" spans="1:3">
-      <c r="A44" s="1">
+      <c r="A44" s="8">
         <v>300000</v>
       </c>
-      <c r="B44" s="1">
+      <c r="B44" s="8">
         <v>0.0214981908026143</v>
       </c>
-      <c r="C44" s="1">
+      <c r="C44" s="8">
         <v>0.00630517376510733</v>
       </c>
     </row>
     <row r="45" spans="1:3">
-      <c r="A45" s="1">
+      <c r="A45" s="8">
         <v>350000</v>
       </c>
-      <c r="B45" s="1">
+      <c r="B45" s="8">
         <v>0.0214000842886472</v>
       </c>
-      <c r="C45" s="1">
+      <c r="C45" s="8">
         <v>0.00561597452097819</v>
       </c>
     </row>
     <row r="46" spans="1:3">
-      <c r="A46" s="1">
+      <c r="A46" s="8">
         <v>400000</v>
       </c>
-      <c r="B46" s="1">
+      <c r="B46" s="8">
         <v>0.0200231068179553</v>
       </c>
-      <c r="C46" s="1">
+      <c r="C46" s="8">
         <v>0.0047294332493212</v>
       </c>
     </row>
     <row r="47" spans="1:3">
-      <c r="A47" s="1">
+      <c r="A47" s="8">
         <v>450000</v>
       </c>
-      <c r="B47" s="1">
+      <c r="B47" s="8">
         <v>0.0186474570106192</v>
       </c>
-      <c r="C47" s="1">
+      <c r="C47" s="8">
         <v>0.0042375760960073</v>
       </c>
     </row>
     <row r="48" spans="1:3">
-      <c r="A48" s="1">
+      <c r="A48" s="8">
         <v>500000</v>
       </c>
-      <c r="B48" s="1">
+      <c r="B48" s="8">
         <v>0.0181545687495735</v>
       </c>
-      <c r="C48" s="1">
+      <c r="C48" s="8">
         <v>0.00379410895340843</v>
       </c>
     </row>
     <row r="49" spans="1:3">
-      <c r="A49" s="1">
+      <c r="A49" s="8">
         <v>550000</v>
       </c>
-      <c r="B49" s="1">
+      <c r="B49" s="8">
         <v>0.0170222957117859</v>
       </c>
-      <c r="C49" s="1">
+      <c r="C49" s="8">
         <v>0.00349866079843413</v>
       </c>
     </row>
     <row r="50" spans="1:3">
-      <c r="A50" s="1">
+      <c r="A50" s="8">
         <v>600000</v>
       </c>
-      <c r="B50" s="1">
+      <c r="B50" s="8">
         <v>0.016529577420154</v>
       </c>
-      <c r="C50" s="1">
+      <c r="C50" s="8">
         <v>0.00305489918759866</v>
       </c>
     </row>
     <row r="51" spans="1:3">
-      <c r="A51" s="1">
+      <c r="A51" s="8">
         <v>650000</v>
       </c>
-      <c r="B51" s="1">
+      <c r="B51" s="8">
         <v>0.0151051184379338</v>
       </c>
-      <c r="C51" s="1">
+      <c r="C51" s="8">
         <v>0.00231583636516939</v>
       </c>
     </row>
     <row r="52" spans="1:3">
-      <c r="A52" s="1">
+      <c r="A52" s="8">
         <v>700000</v>
       </c>
-      <c r="B52" s="1">
+      <c r="B52" s="8">
         <v>0.0145632037913036</v>
       </c>
-      <c r="C52" s="1">
+      <c r="C52" s="8">
         <v>0.00192228167542819</v>
       </c>
     </row>
     <row r="53" spans="1:3">
-      <c r="A53" s="1">
+      <c r="A53" s="8">
         <v>750000</v>
       </c>
-      <c r="B53" s="1">
+      <c r="B53" s="8">
         <v>0.0145632037913036</v>
       </c>
-      <c r="C53" s="1">
+      <c r="C53" s="8">
         <v>0.00152799029374971</v>
       </c>
     </row>
     <row r="54" spans="1:3">
-      <c r="A54" s="1">
+      <c r="A54" s="8">
         <v>800000</v>
       </c>
-      <c r="B54" s="1">
+      <c r="B54" s="8">
         <v>0.014220001081305</v>
       </c>
-      <c r="C54" s="1">
+      <c r="C54" s="8">
         <v>0.00113404316918635</v>
       </c>
     </row>
     <row r="55" spans="1:3">
-      <c r="A55" s="1">
+      <c r="A55" s="8">
         <v>850000</v>
       </c>
-      <c r="B55" s="1">
+      <c r="B55" s="8">
         <v>0.0140726208962671</v>
       </c>
-      <c r="C55" s="1">
+      <c r="C55" s="8">
         <v>0.000936897477055751</v>
       </c>
     </row>
     <row r="56" spans="1:3">
-      <c r="A56" s="1">
+      <c r="A56" s="8">
         <v>900000</v>
       </c>
-      <c r="B56" s="1">
+      <c r="B56" s="8">
         <v>0.0137781045977334</v>
       </c>
-      <c r="C56" s="1">
+      <c r="C56" s="8">
         <v>0.000936897476999973</v>
       </c>
     </row>
     <row r="57" spans="1:3">
-      <c r="A57" s="1">
+      <c r="A57" s="8">
         <v>950000</v>
       </c>
-      <c r="B57" s="1">
+      <c r="B57" s="8">
         <v>0.0137781045977334</v>
       </c>
-      <c r="C57" s="1">
+      <c r="C57" s="8">
         <v>0.000936897476950948</v>
       </c>
     </row>
     <row r="58" spans="1:3">
-      <c r="A58" s="1">
+      <c r="A58" s="8">
         <v>1000000</v>
       </c>
-      <c r="B58" s="1">
+      <c r="B58" s="8">
         <v>0.0130394842494958</v>
       </c>
-      <c r="C58" s="1">
+      <c r="C58" s="8">
         <v>0.000788976670214867</v>
       </c>
     </row>
     <row r="76" spans="1:9">
-      <c r="A76" s="1" t="s">
+      <c r="A76" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B76" s="1"/>
-      <c r="C76" s="1"/>
-      <c r="D76" s="1"/>
-      <c r="E76" s="1"/>
-      <c r="F76" s="1"/>
-      <c r="G76" s="1"/>
-      <c r="H76" s="1"/>
-      <c r="I76" s="1"/>
+      <c r="B76" s="8"/>
+      <c r="C76" s="8"/>
+      <c r="D76" s="8"/>
+      <c r="E76" s="8"/>
+      <c r="F76" s="8"/>
+      <c r="G76" s="8"/>
+      <c r="H76" s="8"/>
+      <c r="I76" s="8"/>
     </row>
     <row r="77" spans="1:9">
-      <c r="A77" s="1" t="s">
+      <c r="A77" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B77" s="1"/>
-      <c r="C77" s="1"/>
-      <c r="D77" s="1"/>
-      <c r="E77" s="1"/>
-      <c r="F77" s="1"/>
-      <c r="G77" s="1"/>
-      <c r="H77" s="1"/>
-      <c r="I77" s="1"/>
+      <c r="B77" s="8"/>
+      <c r="C77" s="8"/>
+      <c r="D77" s="8"/>
+      <c r="E77" s="8"/>
+      <c r="F77" s="8"/>
+      <c r="G77" s="8"/>
+      <c r="H77" s="8"/>
+      <c r="I77" s="8"/>
     </row>
     <row r="78" spans="1:9">
-      <c r="A78" s="1" t="s">
+      <c r="A78" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B78" s="1"/>
-      <c r="C78" s="1"/>
-      <c r="D78" s="1"/>
-      <c r="E78" s="1"/>
-      <c r="F78" s="1"/>
-      <c r="G78" s="1"/>
-      <c r="H78" s="1"/>
-      <c r="I78" s="1"/>
+      <c r="B78" s="8"/>
+      <c r="C78" s="8"/>
+      <c r="D78" s="8"/>
+      <c r="E78" s="8"/>
+      <c r="F78" s="8"/>
+      <c r="G78" s="8"/>
+      <c r="H78" s="8"/>
+      <c r="I78" s="8"/>
     </row>
     <row r="79" spans="1:9">
-      <c r="A79" s="1" t="s">
+      <c r="A79" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B79" s="1"/>
-      <c r="C79" s="1"/>
-      <c r="D79" s="1"/>
-      <c r="E79" s="1"/>
-      <c r="F79" s="1"/>
-      <c r="G79" s="1"/>
-      <c r="H79" s="1"/>
-      <c r="I79" s="1"/>
+      <c r="B79" s="8"/>
+      <c r="C79" s="8"/>
+      <c r="D79" s="8"/>
+      <c r="E79" s="8"/>
+      <c r="F79" s="8"/>
+      <c r="G79" s="8"/>
+      <c r="H79" s="8"/>
+      <c r="I79" s="8"/>
     </row>
     <row r="80" spans="1:9">
-      <c r="A80" s="1" t="s">
+      <c r="A80" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B80" s="1"/>
-      <c r="C80" s="1"/>
-      <c r="D80" s="1"/>
-      <c r="E80" s="1"/>
-      <c r="F80" s="1"/>
-      <c r="G80" s="1"/>
-      <c r="H80" s="1"/>
-      <c r="I80" s="1"/>
+      <c r="B80" s="8"/>
+      <c r="C80" s="8"/>
+      <c r="D80" s="8"/>
+      <c r="E80" s="8"/>
+      <c r="F80" s="8"/>
+      <c r="G80" s="8"/>
+      <c r="H80" s="8"/>
+      <c r="I80" s="8"/>
     </row>
     <row r="81" spans="1:9">
-      <c r="A81" s="1" t="s">
+      <c r="A81" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B81" s="1"/>
-      <c r="C81" s="1"/>
-      <c r="D81" s="1"/>
-      <c r="E81" s="1"/>
-      <c r="F81" s="1"/>
-      <c r="G81" s="1"/>
-      <c r="H81" s="1"/>
-      <c r="I81" s="1"/>
+      <c r="B81" s="8"/>
+      <c r="C81" s="8"/>
+      <c r="D81" s="8"/>
+      <c r="E81" s="8"/>
+      <c r="F81" s="8"/>
+      <c r="G81" s="8"/>
+      <c r="H81" s="8"/>
+      <c r="I81" s="8"/>
     </row>
     <row r="82" spans="1:9">
-      <c r="A82" s="1" t="s">
+      <c r="A82" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B82" s="1"/>
-      <c r="C82" s="1"/>
-      <c r="D82" s="1"/>
-      <c r="E82" s="1"/>
-      <c r="F82" s="1"/>
-      <c r="G82" s="1"/>
-      <c r="H82" s="1"/>
-      <c r="I82" s="1"/>
+      <c r="B82" s="8"/>
+      <c r="C82" s="8"/>
+      <c r="D82" s="8"/>
+      <c r="E82" s="8"/>
+      <c r="F82" s="8"/>
+      <c r="G82" s="8"/>
+      <c r="H82" s="8"/>
+      <c r="I82" s="8"/>
     </row>
     <row r="83" spans="1:9">
-      <c r="A83" s="1" t="s">
+      <c r="A83" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B83" s="1"/>
-      <c r="C83" s="1"/>
-      <c r="D83" s="1"/>
-      <c r="E83" s="1"/>
-      <c r="F83" s="1"/>
-      <c r="G83" s="1"/>
-      <c r="H83" s="1"/>
-      <c r="I83" s="1"/>
+      <c r="B83" s="8"/>
+      <c r="C83" s="8"/>
+      <c r="D83" s="8"/>
+      <c r="E83" s="8"/>
+      <c r="F83" s="8"/>
+      <c r="G83" s="8"/>
+      <c r="H83" s="8"/>
+      <c r="I83" s="8"/>
     </row>
     <row r="84" spans="1:9">
-      <c r="A84" s="1" t="s">
+      <c r="A84" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B84" s="1"/>
-      <c r="C84" s="1"/>
-      <c r="D84" s="1"/>
-      <c r="E84" s="1"/>
-      <c r="F84" s="1"/>
-      <c r="G84" s="1"/>
-      <c r="H84" s="1"/>
-      <c r="I84" s="1"/>
+      <c r="B84" s="8"/>
+      <c r="C84" s="8"/>
+      <c r="D84" s="8"/>
+      <c r="E84" s="8"/>
+      <c r="F84" s="8"/>
+      <c r="G84" s="8"/>
+      <c r="H84" s="8"/>
+      <c r="I84" s="8"/>
     </row>
     <row r="85" spans="1:9">
-      <c r="A85" s="1" t="s">
+      <c r="A85" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B85" s="1"/>
-      <c r="C85" s="1"/>
-      <c r="D85" s="1"/>
-      <c r="E85" s="1"/>
-      <c r="F85" s="1"/>
-      <c r="G85" s="1"/>
-      <c r="H85" s="1"/>
-      <c r="I85" s="1"/>
+      <c r="B85" s="8"/>
+      <c r="C85" s="8"/>
+      <c r="D85" s="8"/>
+      <c r="E85" s="8"/>
+      <c r="F85" s="8"/>
+      <c r="G85" s="8"/>
+      <c r="H85" s="8"/>
+      <c r="I85" s="8"/>
     </row>
     <row r="86" spans="1:9">
-      <c r="A86" s="1"/>
-      <c r="B86" s="1"/>
-      <c r="C86" s="1"/>
-      <c r="D86" s="1"/>
-      <c r="E86" s="1"/>
-      <c r="F86" s="1"/>
-      <c r="G86" s="1"/>
-      <c r="H86" s="1"/>
-      <c r="I86" s="1"/>
+      <c r="A86" s="8"/>
+      <c r="B86" s="8"/>
+      <c r="C86" s="8"/>
+      <c r="D86" s="8"/>
+      <c r="E86" s="8"/>
+      <c r="F86" s="8"/>
+      <c r="G86" s="8"/>
+      <c r="H86" s="8"/>
+      <c r="I86" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -13875,8 +13915,8 @@
   <sheetPr/>
   <dimension ref="A1:I85"/>
   <sheetViews>
-    <sheetView topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="A76" sqref="A76:A85"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -13885,763 +13925,763 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="8" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="1">
+      <c r="A2" s="8">
         <v>5</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2" s="8">
         <v>246.564572322765</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2" s="8">
         <v>240.688718077658</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="1">
+      <c r="A3" s="8">
         <v>50</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3" s="8">
         <v>240.817020346252</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="8">
         <v>232.005977350949</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="1">
+      <c r="A4" s="8">
         <v>100</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4" s="8">
         <v>238.687410369451</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="8">
         <v>232.005977350949</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="1">
+      <c r="A5" s="8">
         <v>500</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5" s="8">
         <v>165.023642878652</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" s="8">
         <v>219.413516592825</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="1">
+      <c r="A6" s="8">
         <v>1000</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6" s="8">
         <v>114.868630495218</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="8">
         <v>183.669771603968</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="1">
+      <c r="A7" s="8">
         <v>1500</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7" s="8">
         <v>71.3092260082291</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7" s="8">
         <v>142.383890981453</v>
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="1">
+      <c r="A8" s="8">
         <v>2000</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B8" s="8">
         <v>51.1462218856805</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8" s="8">
         <v>85.5463056727005</v>
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="1">
+      <c r="A9" s="8">
         <v>2500</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B9" s="8">
         <v>35.7768549904364</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C9" s="8">
         <v>55.5170139365642</v>
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="1">
+      <c r="A10" s="8">
         <v>3000</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B10" s="8">
         <v>27.6824301954814</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C10" s="8">
         <v>42.552612273855</v>
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="1">
+      <c r="A11" s="8">
         <v>3500</v>
       </c>
-      <c r="B11" s="1">
+      <c r="B11" s="8">
         <v>19.7840182440289</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C11" s="8">
         <v>27.2410679753964</v>
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="1">
+      <c r="A12" s="8">
         <v>4000</v>
       </c>
-      <c r="B12" s="1">
+      <c r="B12" s="8">
         <v>14.933497148661</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C12" s="8">
         <v>13.9851454090606</v>
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="1">
+      <c r="A13" s="8">
         <v>4500</v>
       </c>
-      <c r="B13" s="1">
+      <c r="B13" s="8">
         <v>11.3562278899075</v>
       </c>
-      <c r="C13" s="1">
+      <c r="C13" s="8">
         <v>10.3542667033343</v>
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="1">
+      <c r="A14" s="8">
         <v>5000</v>
       </c>
-      <c r="B14" s="1">
+      <c r="B14" s="8">
         <v>9.08772072534688</v>
       </c>
-      <c r="C14" s="1">
+      <c r="C14" s="8">
         <v>7.0051647146481</v>
       </c>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" s="1">
+      <c r="A15" s="8">
         <v>6000</v>
       </c>
-      <c r="B15" s="1">
+      <c r="B15" s="8">
         <v>5.73325296872197</v>
       </c>
-      <c r="C15" s="1">
+      <c r="C15" s="8">
         <v>4.22079877224414</v>
       </c>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16" s="1">
+      <c r="A16" s="8">
         <v>7000</v>
       </c>
-      <c r="B16" s="1">
+      <c r="B16" s="8">
         <v>4.17186975995242</v>
       </c>
-      <c r="C16" s="1">
+      <c r="C16" s="8">
         <v>2.96777401648792</v>
       </c>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="1">
+      <c r="A17" s="8">
         <v>8000</v>
       </c>
-      <c r="B17" s="1">
+      <c r="B17" s="8">
         <v>2.96786422385972</v>
       </c>
-      <c r="C17" s="1">
+      <c r="C17" s="8">
         <v>1.98265553089566</v>
       </c>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="1">
+      <c r="A18" s="8">
         <v>9000</v>
       </c>
-      <c r="B18" s="1">
+      <c r="B18" s="8">
         <v>2.02174133133634</v>
       </c>
-      <c r="C18" s="1">
+      <c r="C18" s="8">
         <v>1.35222694284537</v>
       </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="1">
+      <c r="A19" s="8">
         <v>10000</v>
       </c>
-      <c r="B19" s="1">
+      <c r="B19" s="8">
         <v>1.29205587898905</v>
       </c>
-      <c r="C19" s="1">
+      <c r="C19" s="8">
         <v>1.01768774897135</v>
       </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="1">
+      <c r="A20" s="8">
         <v>12000</v>
       </c>
-      <c r="B20" s="1">
+      <c r="B20" s="8">
         <v>0.603342861008916</v>
       </c>
-      <c r="C20" s="1">
+      <c r="C20" s="8">
         <v>0.521086733674555</v>
       </c>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="1">
+      <c r="A21" s="8">
         <v>14000</v>
       </c>
-      <c r="B21" s="1">
+      <c r="B21" s="8">
         <v>0.297432437909982</v>
       </c>
-      <c r="C21" s="1">
+      <c r="C21" s="8">
         <v>0.322602311087179</v>
       </c>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" s="1">
+      <c r="A22" s="8">
         <v>16000</v>
       </c>
-      <c r="B22" s="1">
+      <c r="B22" s="8">
         <v>0.164521032842634</v>
       </c>
-      <c r="C22" s="1">
+      <c r="C22" s="8">
         <v>0.178666052548424</v>
       </c>
     </row>
     <row r="23" spans="1:3">
-      <c r="A23" s="1">
+      <c r="A23" s="8">
         <v>18000</v>
       </c>
-      <c r="B23" s="1">
+      <c r="B23" s="8">
         <v>0.0690580351171355</v>
       </c>
-      <c r="C23" s="1">
+      <c r="C23" s="8">
         <v>0.0774619315122805</v>
       </c>
     </row>
     <row r="24" spans="1:3">
-      <c r="A24" s="1">
+      <c r="A24" s="8">
         <v>20000</v>
       </c>
-      <c r="B24" s="1">
+      <c r="B24" s="8">
         <v>0.0600055166159171</v>
       </c>
-      <c r="C24" s="1">
+      <c r="C24" s="8">
         <v>0.0590622622927796</v>
       </c>
     </row>
     <row r="25" spans="1:3">
-      <c r="A25" s="1">
+      <c r="A25" s="8">
         <v>25000</v>
       </c>
-      <c r="B25" s="2">
+      <c r="B25" s="9">
         <v>0.00675803961499795</v>
       </c>
-      <c r="C25" s="2">
+      <c r="C25" s="9">
         <v>0.0590027221673025</v>
       </c>
     </row>
     <row r="26" spans="1:3">
-      <c r="A26" s="1">
+      <c r="A26" s="8">
         <v>30000</v>
       </c>
-      <c r="B26" s="2">
+      <c r="B26" s="9">
         <v>5.53458568219866e-8</v>
       </c>
-      <c r="C26" s="2">
+      <c r="C26" s="9">
         <v>0.000211106854874145</v>
       </c>
     </row>
     <row r="27" spans="1:3">
-      <c r="A27" s="1">
+      <c r="A27" s="8">
         <v>35000</v>
       </c>
-      <c r="B27" s="2">
+      <c r="B27" s="9">
         <v>7.65965069149388e-14</v>
       </c>
-      <c r="C27" s="2">
+      <c r="C27" s="9">
         <v>8.09592393125058e-13</v>
       </c>
     </row>
     <row r="28" spans="1:3">
-      <c r="A28" s="1">
+      <c r="A28" s="8">
         <v>40000</v>
       </c>
-      <c r="B28" s="2">
+      <c r="B28" s="9">
         <v>6.11066752753686e-15</v>
       </c>
-      <c r="C28" s="2">
+      <c r="C28" s="9">
         <v>4.46647163698798e-13</v>
       </c>
     </row>
     <row r="29" spans="1:3">
-      <c r="A29" s="1">
+      <c r="A29" s="8">
         <v>45000</v>
       </c>
-      <c r="B29" s="2">
+      <c r="B29" s="9">
         <v>4.68958205601666e-15</v>
       </c>
-      <c r="C29" s="2">
+      <c r="C29" s="9">
         <v>4.1367798075953e-13</v>
       </c>
     </row>
     <row r="30" spans="1:3">
-      <c r="A30" s="1">
+      <c r="A30" s="8">
         <v>50000</v>
       </c>
-      <c r="B30" s="2">
+      <c r="B30" s="9">
         <v>4.54747350886464e-15</v>
       </c>
-      <c r="C30" s="2">
+      <c r="C30" s="9">
         <v>3.86819465347798e-13</v>
       </c>
     </row>
     <row r="31" spans="1:3">
-      <c r="A31" s="1">
+      <c r="A31" s="8">
         <v>55000</v>
       </c>
-      <c r="B31" s="2">
+      <c r="B31" s="9">
         <v>4.40536496171262e-15</v>
       </c>
-      <c r="C31" s="2">
+      <c r="C31" s="9">
         <v>3.7431391319842e-13</v>
       </c>
     </row>
     <row r="32" spans="1:3">
-      <c r="A32" s="1">
+      <c r="A32" s="8">
         <v>60000</v>
       </c>
-      <c r="B32" s="2">
+      <c r="B32" s="9">
         <v>3.83693077310454e-15</v>
       </c>
-      <c r="C32" s="2">
+      <c r="C32" s="9">
         <v>3.7005065678386e-13</v>
       </c>
     </row>
     <row r="33" spans="1:3">
-      <c r="A33" s="1">
+      <c r="A33" s="8">
         <v>65000</v>
       </c>
-      <c r="B33" s="2">
+      <c r="B33" s="9">
         <v>3.69482222595252e-15</v>
       </c>
-      <c r="C33" s="2">
+      <c r="C33" s="9">
         <v>3.65645291822147e-13</v>
       </c>
     </row>
     <row r="34" spans="1:3">
-      <c r="A34" s="1">
+      <c r="A34" s="8">
         <v>70000</v>
       </c>
-      <c r="B34" s="2">
+      <c r="B34" s="9">
         <v>2.98427949019242e-15</v>
       </c>
-      <c r="C34" s="2">
+      <c r="C34" s="9">
         <v>3.63513663614867e-13</v>
       </c>
     </row>
     <row r="35" spans="1:3">
-      <c r="A35" s="1">
+      <c r="A35" s="8">
         <v>75000</v>
       </c>
-      <c r="B35" s="2">
+      <c r="B35" s="9">
         <v>2.8421709430404e-15</v>
       </c>
-      <c r="C35" s="2">
+      <c r="C35" s="9">
         <v>3.59818841388914e-13</v>
       </c>
     </row>
     <row r="36" spans="1:3">
-      <c r="A36" s="1">
+      <c r="A36" s="8">
         <v>80000</v>
       </c>
-      <c r="B36" s="2">
+      <c r="B36" s="9">
         <v>2.41584530158434e-15</v>
       </c>
-      <c r="C36" s="2">
+      <c r="C36" s="9">
         <v>3.48308049069601e-13</v>
       </c>
     </row>
     <row r="37" spans="1:3">
-      <c r="A37" s="1">
+      <c r="A37" s="8">
         <v>85000</v>
       </c>
-      <c r="B37" s="2">
+      <c r="B37" s="9">
         <v>2.27373675443232e-15</v>
       </c>
-      <c r="C37" s="2">
+      <c r="C37" s="9">
         <v>3.4404479265504e-13</v>
       </c>
     </row>
     <row r="38" spans="1:3">
-      <c r="A38" s="1">
+      <c r="A38" s="8">
         <v>90000</v>
       </c>
-      <c r="B38" s="2">
+      <c r="B38" s="9">
         <v>1.70530256582424e-15</v>
       </c>
-      <c r="C38" s="2">
+      <c r="C38" s="9">
         <v>3.39639427693327e-13</v>
       </c>
     </row>
     <row r="39" spans="1:3">
-      <c r="A39" s="1">
+      <c r="A39" s="8">
         <v>95000</v>
       </c>
-      <c r="B39" s="2">
+      <c r="B39" s="9">
         <v>1.56319401867222e-15</v>
       </c>
-      <c r="C39" s="2">
+      <c r="C39" s="9">
         <v>3.3281821743003e-13</v>
       </c>
     </row>
     <row r="40" spans="1:3">
-      <c r="A40" s="1">
+      <c r="A40" s="8">
         <v>100000</v>
       </c>
-      <c r="B40" s="2">
+      <c r="B40" s="9">
         <v>1.27897692436818e-15</v>
       </c>
-      <c r="C40" s="2">
+      <c r="C40" s="9">
         <v>3.27702309732558e-13</v>
       </c>
     </row>
     <row r="41" spans="1:3">
-      <c r="A41" s="1">
+      <c r="A41" s="8">
         <v>150000</v>
       </c>
-      <c r="B41" s="2">
+      <c r="B41" s="9">
         <v>8.5265128291212e-16</v>
       </c>
-      <c r="C41" s="2">
+      <c r="C41" s="9">
         <v>2.96296320811961e-13</v>
       </c>
     </row>
     <row r="42" spans="1:3">
-      <c r="A42" s="1">
+      <c r="A42" s="8">
         <v>200000</v>
       </c>
-      <c r="B42" s="2">
+      <c r="B42" s="9">
         <v>5.6843418860808e-16</v>
       </c>
-      <c r="C42" s="2">
+      <c r="C42" s="9">
         <v>2.84643419945496e-13</v>
       </c>
     </row>
     <row r="43" spans="1:3">
-      <c r="A43" s="1">
+      <c r="A43" s="8">
         <v>250000</v>
       </c>
-      <c r="B43" s="2">
+      <c r="B43" s="9">
         <v>0</v>
       </c>
-      <c r="C43" s="2">
+      <c r="C43" s="9">
         <v>2.68158828475861e-13</v>
       </c>
     </row>
     <row r="44" spans="1:3">
-      <c r="A44" s="1">
+      <c r="A44" s="8">
         <v>300000</v>
       </c>
-      <c r="B44" s="2">
+      <c r="B44" s="9">
         <v>0</v>
       </c>
-      <c r="C44" s="2">
+      <c r="C44" s="9">
         <v>2.54374299402115e-13</v>
       </c>
     </row>
     <row r="45" spans="1:3">
-      <c r="A45" s="1">
+      <c r="A45" s="8">
         <v>350000</v>
       </c>
-      <c r="B45" s="2">
+      <c r="B45" s="9">
         <v>0</v>
       </c>
-      <c r="C45" s="2">
+      <c r="C45" s="9">
         <v>2.54374299402115e-13</v>
       </c>
     </row>
     <row r="46" spans="1:3">
-      <c r="A46" s="1">
+      <c r="A46" s="8">
         <v>400000</v>
       </c>
-      <c r="B46" s="2">
+      <c r="B46" s="9">
         <v>0</v>
       </c>
-      <c r="C46" s="2">
+      <c r="C46" s="9">
         <v>2.49684717346099e-13</v>
       </c>
     </row>
     <row r="47" spans="1:3">
-      <c r="A47" s="1">
+      <c r="A47" s="8">
         <v>450000</v>
       </c>
-      <c r="B47" s="2">
+      <c r="B47" s="9">
         <v>0</v>
       </c>
-      <c r="C47" s="2">
+      <c r="C47" s="9">
         <v>2.45989895120146e-13</v>
       </c>
     </row>
     <row r="48" spans="1:3">
-      <c r="A48" s="1">
+      <c r="A48" s="8">
         <v>500000</v>
       </c>
-      <c r="B48" s="2">
+      <c r="B48" s="9">
         <v>0</v>
       </c>
-      <c r="C48" s="2">
+      <c r="C48" s="9">
         <v>2.41726638705586e-13</v>
       </c>
     </row>
     <row r="49" spans="1:3">
-      <c r="A49" s="1">
+      <c r="A49" s="8">
         <v>550000</v>
       </c>
-      <c r="B49" s="2">
+      <c r="B49" s="9">
         <v>0</v>
       </c>
-      <c r="C49" s="2">
+      <c r="C49" s="9">
         <v>2.39879227592609e-13</v>
       </c>
     </row>
     <row r="50" spans="1:3">
-      <c r="A50" s="1">
+      <c r="A50" s="8">
         <v>600000</v>
       </c>
-      <c r="B50" s="2">
+      <c r="B50" s="9">
         <v>0</v>
       </c>
-      <c r="C50" s="2">
+      <c r="C50" s="9">
         <v>2.32489583140704e-13</v>
       </c>
     </row>
     <row r="51" spans="1:3">
-      <c r="A51" s="1">
+      <c r="A51" s="8">
         <v>650000</v>
       </c>
-      <c r="B51" s="2">
+      <c r="B51" s="9">
         <v>0</v>
       </c>
-      <c r="C51" s="2">
+      <c r="C51" s="9">
         <v>2.31352714763488e-13</v>
       </c>
     </row>
     <row r="52" spans="1:3">
-      <c r="A52" s="1">
+      <c r="A52" s="8">
         <v>700000</v>
       </c>
-      <c r="B52" s="2">
+      <c r="B52" s="9">
         <v>0</v>
       </c>
-      <c r="C52" s="2">
+      <c r="C52" s="9">
         <v>2.30926389122032e-13</v>
       </c>
     </row>
     <row r="53" spans="1:3">
-      <c r="A53" s="1">
+      <c r="A53" s="8">
         <v>750000</v>
       </c>
-      <c r="B53" s="2">
+      <c r="B53" s="9">
         <v>0</v>
       </c>
-      <c r="C53" s="2">
+      <c r="C53" s="9">
         <v>2.23678853217279e-13</v>
       </c>
     </row>
     <row r="54" spans="1:3">
-      <c r="A54" s="1">
+      <c r="A54" s="8">
         <v>800000</v>
       </c>
-      <c r="B54" s="2">
+      <c r="B54" s="9">
         <v>0</v>
       </c>
-      <c r="C54" s="2">
+      <c r="C54" s="9">
         <v>2.19131379708414e-13</v>
       </c>
     </row>
     <row r="55" spans="1:3">
-      <c r="A55" s="1">
+      <c r="A55" s="8">
         <v>850000</v>
       </c>
-      <c r="B55" s="2">
+      <c r="B55" s="9">
         <v>0</v>
       </c>
-      <c r="C55" s="2">
+      <c r="C55" s="9">
         <v>2.17568185689742e-13</v>
       </c>
     </row>
     <row r="56" spans="1:3">
-      <c r="A56" s="1">
+      <c r="A56" s="8">
         <v>900000</v>
       </c>
-      <c r="B56" s="2">
+      <c r="B56" s="9">
         <v>0</v>
       </c>
-      <c r="C56" s="2">
+      <c r="C56" s="9">
         <v>2.12878603633726e-13</v>
       </c>
     </row>
     <row r="57" spans="1:3">
-      <c r="A57" s="1">
+      <c r="A57" s="8">
         <v>950000</v>
       </c>
-      <c r="B57" s="2">
+      <c r="B57" s="9">
         <v>0</v>
       </c>
-      <c r="C57" s="2">
+      <c r="C57" s="9">
         <v>2.11883843803661e-13</v>
       </c>
     </row>
     <row r="58" spans="1:3">
-      <c r="A58" s="1">
+      <c r="A58" s="8">
         <v>1000000</v>
       </c>
-      <c r="B58" s="2">
+      <c r="B58" s="9">
         <v>0</v>
       </c>
-      <c r="C58" s="2">
+      <c r="C58" s="9">
         <v>2.10036432690685e-13</v>
       </c>
     </row>
     <row r="59" spans="2:3">
-      <c r="B59" s="3"/>
-      <c r="C59" s="3"/>
+      <c r="B59" s="10"/>
+      <c r="C59" s="10"/>
     </row>
     <row r="76" spans="1:9">
-      <c r="A76" s="1" t="s">
+      <c r="A76" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B76" s="1"/>
-      <c r="C76" s="1"/>
-      <c r="D76" s="1"/>
-      <c r="E76" s="1"/>
-      <c r="F76" s="1"/>
-      <c r="G76" s="1"/>
-      <c r="H76" s="1"/>
-      <c r="I76" s="1"/>
+      <c r="B76" s="8"/>
+      <c r="C76" s="8"/>
+      <c r="D76" s="8"/>
+      <c r="E76" s="8"/>
+      <c r="F76" s="8"/>
+      <c r="G76" s="8"/>
+      <c r="H76" s="8"/>
+      <c r="I76" s="8"/>
     </row>
     <row r="77" spans="1:9">
-      <c r="A77" s="1" t="s">
+      <c r="A77" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B77" s="1"/>
-      <c r="C77" s="1"/>
-      <c r="D77" s="1"/>
-      <c r="E77" s="1"/>
-      <c r="F77" s="1"/>
-      <c r="G77" s="1"/>
-      <c r="H77" s="1"/>
-      <c r="I77" s="1"/>
+      <c r="B77" s="8"/>
+      <c r="C77" s="8"/>
+      <c r="D77" s="8"/>
+      <c r="E77" s="8"/>
+      <c r="F77" s="8"/>
+      <c r="G77" s="8"/>
+      <c r="H77" s="8"/>
+      <c r="I77" s="8"/>
     </row>
     <row r="78" spans="1:9">
-      <c r="A78" s="1" t="s">
+      <c r="A78" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B78" s="1"/>
-      <c r="C78" s="1"/>
-      <c r="D78" s="1"/>
-      <c r="E78" s="1"/>
-      <c r="F78" s="1"/>
-      <c r="G78" s="1"/>
-      <c r="H78" s="1"/>
-      <c r="I78" s="1"/>
+      <c r="B78" s="8"/>
+      <c r="C78" s="8"/>
+      <c r="D78" s="8"/>
+      <c r="E78" s="8"/>
+      <c r="F78" s="8"/>
+      <c r="G78" s="8"/>
+      <c r="H78" s="8"/>
+      <c r="I78" s="8"/>
     </row>
     <row r="79" spans="1:9">
-      <c r="A79" s="1" t="s">
+      <c r="A79" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B79" s="1"/>
-      <c r="C79" s="1"/>
-      <c r="D79" s="1"/>
-      <c r="E79" s="1"/>
-      <c r="F79" s="1"/>
-      <c r="G79" s="1"/>
-      <c r="H79" s="1"/>
-      <c r="I79" s="1"/>
+      <c r="B79" s="8"/>
+      <c r="C79" s="8"/>
+      <c r="D79" s="8"/>
+      <c r="E79" s="8"/>
+      <c r="F79" s="8"/>
+      <c r="G79" s="8"/>
+      <c r="H79" s="8"/>
+      <c r="I79" s="8"/>
     </row>
     <row r="80" spans="1:9">
-      <c r="A80" s="1" t="s">
+      <c r="A80" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B80" s="1"/>
-      <c r="C80" s="1"/>
-      <c r="D80" s="1"/>
-      <c r="E80" s="1"/>
-      <c r="F80" s="1"/>
-      <c r="G80" s="1"/>
-      <c r="H80" s="1"/>
-      <c r="I80" s="1"/>
+      <c r="B80" s="8"/>
+      <c r="C80" s="8"/>
+      <c r="D80" s="8"/>
+      <c r="E80" s="8"/>
+      <c r="F80" s="8"/>
+      <c r="G80" s="8"/>
+      <c r="H80" s="8"/>
+      <c r="I80" s="8"/>
     </row>
     <row r="81" spans="1:9">
-      <c r="A81" s="1" t="s">
+      <c r="A81" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B81" s="1"/>
-      <c r="C81" s="1"/>
-      <c r="D81" s="1"/>
-      <c r="E81" s="1"/>
-      <c r="F81" s="1"/>
-      <c r="G81" s="1"/>
-      <c r="H81" s="1"/>
-      <c r="I81" s="1"/>
+      <c r="B81" s="8"/>
+      <c r="C81" s="8"/>
+      <c r="D81" s="8"/>
+      <c r="E81" s="8"/>
+      <c r="F81" s="8"/>
+      <c r="G81" s="8"/>
+      <c r="H81" s="8"/>
+      <c r="I81" s="8"/>
     </row>
     <row r="82" spans="1:9">
-      <c r="A82" s="1" t="s">
+      <c r="A82" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B82" s="1"/>
-      <c r="C82" s="1"/>
-      <c r="D82" s="1"/>
-      <c r="E82" s="1"/>
-      <c r="F82" s="1"/>
-      <c r="G82" s="1"/>
-      <c r="H82" s="1"/>
-      <c r="I82" s="1"/>
+      <c r="B82" s="8"/>
+      <c r="C82" s="8"/>
+      <c r="D82" s="8"/>
+      <c r="E82" s="8"/>
+      <c r="F82" s="8"/>
+      <c r="G82" s="8"/>
+      <c r="H82" s="8"/>
+      <c r="I82" s="8"/>
     </row>
     <row r="83" spans="1:9">
-      <c r="A83" s="1" t="s">
+      <c r="A83" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B83" s="1"/>
-      <c r="C83" s="1"/>
-      <c r="D83" s="1"/>
-      <c r="E83" s="1"/>
-      <c r="F83" s="1"/>
-      <c r="G83" s="1"/>
-      <c r="H83" s="1"/>
-      <c r="I83" s="1"/>
+      <c r="B83" s="8"/>
+      <c r="C83" s="8"/>
+      <c r="D83" s="8"/>
+      <c r="E83" s="8"/>
+      <c r="F83" s="8"/>
+      <c r="G83" s="8"/>
+      <c r="H83" s="8"/>
+      <c r="I83" s="8"/>
     </row>
     <row r="84" spans="1:9">
-      <c r="A84" s="1" t="s">
+      <c r="A84" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B84" s="1"/>
-      <c r="C84" s="1"/>
-      <c r="D84" s="1"/>
-      <c r="E84" s="1"/>
-      <c r="F84" s="1"/>
-      <c r="G84" s="1"/>
-      <c r="H84" s="1"/>
-      <c r="I84" s="1"/>
+      <c r="B84" s="8"/>
+      <c r="C84" s="8"/>
+      <c r="D84" s="8"/>
+      <c r="E84" s="8"/>
+      <c r="F84" s="8"/>
+      <c r="G84" s="8"/>
+      <c r="H84" s="8"/>
+      <c r="I84" s="8"/>
     </row>
     <row r="85" spans="1:1">
       <c r="A85" t="s">
@@ -14660,8 +14700,8 @@
   <sheetPr/>
   <dimension ref="A1:I85"/>
   <sheetViews>
-    <sheetView topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:A58"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -14670,759 +14710,759 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="8" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="1">
+      <c r="A2" s="8">
         <v>5</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2" s="8">
         <v>437.834600945458</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2" s="8">
         <v>209.662818635777</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="1">
+      <c r="A3" s="8">
         <v>50</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="9">
         <v>426.457132315462</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="8">
         <v>94.7458427524224</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="1">
+      <c r="A4" s="8">
         <v>100</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="9">
         <v>414.737608852199</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="8">
         <v>48.4326463598139</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="1">
+      <c r="A5" s="8">
         <v>500</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="9">
         <v>324.382733883394</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" s="8">
         <v>3.11220520357964</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="1">
+      <c r="A6" s="8">
         <v>1000</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="9">
         <v>229.296336130387</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="8">
         <v>2.38903451503108</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="1">
+      <c r="A7" s="8">
         <v>1500</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7" s="8">
         <v>161.038120321385</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7" s="8">
         <v>1.93075775690852</v>
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="1">
+      <c r="A8" s="8">
         <v>2000</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B8" s="8">
         <v>112.95000027556</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8" s="8">
         <v>1.73314514864073</v>
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="1">
+      <c r="A9" s="8">
         <v>2500</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B9" s="8">
         <v>77.7251019583273</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C9" s="8">
         <v>1.40660670391472</v>
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="1">
+      <c r="A10" s="8">
         <v>3000</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B10" s="8">
         <v>50.7190196437871</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C10" s="8">
         <v>1.12951760946506</v>
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="1">
+      <c r="A11" s="8">
         <v>3500</v>
       </c>
-      <c r="B11" s="1">
+      <c r="B11" s="8">
         <v>32.2994704664007</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C11" s="8">
         <v>1.03228337676702</v>
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="1">
+      <c r="A12" s="8">
         <v>4000</v>
       </c>
-      <c r="B12" s="1">
+      <c r="B12" s="8">
         <v>20.0735546173755</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C12" s="8">
         <v>0.894177924944142</v>
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="1">
+      <c r="A13" s="8">
         <v>4500</v>
       </c>
-      <c r="B13" s="1">
+      <c r="B13" s="8">
         <v>11.5438427180783</v>
       </c>
-      <c r="C13" s="1">
+      <c r="C13" s="8">
         <v>0.83709191093188</v>
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="1">
+      <c r="A14" s="8">
         <v>5000</v>
       </c>
-      <c r="B14" s="1">
+      <c r="B14" s="8">
         <v>6.4043228188728</v>
       </c>
-      <c r="C14" s="1">
+      <c r="C14" s="8">
         <v>0.751889701006938</v>
       </c>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" s="1">
+      <c r="A15" s="8">
         <v>6000</v>
       </c>
-      <c r="B15" s="1">
+      <c r="B15" s="8">
         <v>2.03149979061541</v>
       </c>
-      <c r="C15" s="1">
+      <c r="C15" s="8">
         <v>0.638998645572902</v>
       </c>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16" s="1">
+      <c r="A16" s="8">
         <v>7000</v>
       </c>
-      <c r="B16" s="1">
+      <c r="B16" s="8">
         <v>0.801323986305901</v>
       </c>
-      <c r="C16" s="1">
+      <c r="C16" s="8">
         <v>0.553388876456007</v>
       </c>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="1">
+      <c r="A17" s="8">
         <v>8000</v>
       </c>
-      <c r="B17" s="1">
+      <c r="B17" s="8">
         <v>0.498576763107554</v>
       </c>
-      <c r="C17" s="1">
+      <c r="C17" s="8">
         <v>0.464867438689972</v>
       </c>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="1">
+      <c r="A18" s="8">
         <v>9000</v>
       </c>
-      <c r="B18" s="1">
+      <c r="B18" s="8">
         <v>0.355194969729691</v>
       </c>
-      <c r="C18" s="1">
+      <c r="C18" s="8">
         <v>0.414254071995066</v>
       </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="1">
+      <c r="A19" s="8">
         <v>10000</v>
       </c>
-      <c r="B19" s="1">
+      <c r="B19" s="8">
         <v>0.254046408325451</v>
       </c>
-      <c r="C19" s="1">
+      <c r="C19" s="8">
         <v>0.2765367288829</v>
       </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="1">
+      <c r="A20" s="8">
         <v>12000</v>
       </c>
-      <c r="B20" s="1">
+      <c r="B20" s="8">
         <v>0.136292165032556</v>
       </c>
-      <c r="C20" s="1">
+      <c r="C20" s="8">
         <v>0.179852584109677</v>
       </c>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="1">
+      <c r="A21" s="8">
         <v>14000</v>
       </c>
-      <c r="B21" s="1">
+      <c r="B21" s="8">
         <v>0.0795792852936146</v>
       </c>
-      <c r="C21" s="1">
+      <c r="C21" s="8">
         <v>0.13414545436127</v>
       </c>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" s="1">
+      <c r="A22" s="8">
         <v>16000</v>
       </c>
-      <c r="B22" s="1">
+      <c r="B22" s="8">
         <v>0.0424700692794673</v>
       </c>
-      <c r="C22" s="1">
+      <c r="C22" s="8">
         <v>0.0999508417139015</v>
       </c>
     </row>
     <row r="23" spans="1:3">
-      <c r="A23" s="1">
+      <c r="A23" s="8">
         <v>18000</v>
       </c>
-      <c r="B23" s="1">
+      <c r="B23" s="8">
         <v>0.0210502540805892</v>
       </c>
-      <c r="C23" s="1">
+      <c r="C23" s="8">
         <v>0.0748890339690847</v>
       </c>
     </row>
     <row r="24" spans="1:3">
-      <c r="A24" s="1">
+      <c r="A24" s="8">
         <v>20000</v>
       </c>
-      <c r="B24" s="1">
+      <c r="B24" s="8">
         <v>0.01209357606134</v>
       </c>
-      <c r="C24" s="1">
+      <c r="C24" s="8">
         <v>0.0630684105390981</v>
       </c>
     </row>
     <row r="25" spans="1:3">
-      <c r="A25" s="1">
+      <c r="A25" s="8">
         <v>25000</v>
       </c>
-      <c r="B25" s="1">
+      <c r="B25" s="8">
         <v>0.0042275340365903</v>
       </c>
-      <c r="C25" s="1">
+      <c r="C25" s="8">
         <v>0.0433992131800689</v>
       </c>
     </row>
     <row r="26" spans="1:3">
-      <c r="A26" s="1">
+      <c r="A26" s="8">
         <v>30000</v>
       </c>
-      <c r="B26" s="1">
+      <c r="B26" s="8">
         <v>0.00166122217838112</v>
       </c>
-      <c r="C26" s="1">
+      <c r="C26" s="8">
         <v>0.0349674131176434</v>
       </c>
     </row>
     <row r="27" spans="1:3">
-      <c r="A27" s="1">
+      <c r="A27" s="8">
         <v>35000</v>
       </c>
-      <c r="B27" s="1">
+      <c r="B27" s="8">
         <v>0.000668441553147137</v>
       </c>
-      <c r="C27" s="1">
+      <c r="C27" s="8">
         <v>0.0293419862298928</v>
       </c>
     </row>
     <row r="28" spans="1:3">
-      <c r="A28" s="1">
+      <c r="A28" s="8">
         <v>40000</v>
       </c>
-      <c r="B28" s="1">
+      <c r="B28" s="8">
         <v>0.000265577529360515</v>
       </c>
-      <c r="C28" s="2">
+      <c r="C28" s="9">
         <v>0.0250967743759579</v>
       </c>
     </row>
     <row r="29" spans="1:3">
-      <c r="A29" s="1">
+      <c r="A29" s="8">
         <v>45000</v>
       </c>
-      <c r="B29" s="1">
+      <c r="B29" s="8">
         <v>0.000127218377341081</v>
       </c>
-      <c r="C29" s="2">
+      <c r="C29" s="9">
         <v>0.0215848445303573</v>
       </c>
     </row>
     <row r="30" spans="1:3">
-      <c r="A30" s="1">
+      <c r="A30" s="8">
         <v>50000</v>
       </c>
-      <c r="B30" s="2">
+      <c r="B30" s="9">
         <v>6.05366926749604e-5</v>
       </c>
-      <c r="C30" s="2">
+      <c r="C30" s="9">
         <v>0.0187095865390003</v>
       </c>
     </row>
     <row r="31" spans="1:3">
-      <c r="A31" s="1">
+      <c r="A31" s="8">
         <v>55000</v>
       </c>
-      <c r="B31" s="2">
+      <c r="B31" s="9">
         <v>3.12139021470944e-5</v>
       </c>
-      <c r="C31" s="2">
+      <c r="C31" s="9">
         <v>0.0161617433731416</v>
       </c>
     </row>
     <row r="32" spans="1:3">
-      <c r="A32" s="1">
+      <c r="A32" s="8">
         <v>60000</v>
       </c>
-      <c r="B32" s="2">
+      <c r="B32" s="9">
         <v>1.3085124220778e-5</v>
       </c>
-      <c r="C32" s="2">
+      <c r="C32" s="9">
         <v>0.0141052808338055</v>
       </c>
     </row>
     <row r="33" spans="1:3">
-      <c r="A33" s="1">
+      <c r="A33" s="8">
         <v>65000</v>
       </c>
-      <c r="B33" s="2">
+      <c r="B33" s="9">
         <v>6.4162604536036e-6</v>
       </c>
-      <c r="C33" s="2">
+      <c r="C33" s="9">
         <v>0.0123379345020541</v>
       </c>
     </row>
     <row r="34" spans="1:3">
-      <c r="A34" s="1">
+      <c r="A34" s="8">
         <v>70000</v>
       </c>
-      <c r="B34" s="2">
+      <c r="B34" s="9">
         <v>3.49909803655578e-6</v>
       </c>
-      <c r="C34" s="2">
+      <c r="C34" s="9">
         <v>0.0107785791516421</v>
       </c>
     </row>
     <row r="35" spans="1:3">
-      <c r="A35" s="1">
+      <c r="A35" s="8">
         <v>75000</v>
       </c>
-      <c r="B35" s="2">
+      <c r="B35" s="9">
         <v>1.3145581227697e-6</v>
       </c>
-      <c r="C35" s="2">
+      <c r="C35" s="9">
         <v>0.00943091550013986</v>
       </c>
     </row>
     <row r="36" spans="1:3">
-      <c r="A36" s="1">
+      <c r="A36" s="8">
         <v>80000</v>
       </c>
-      <c r="B36" s="2">
+      <c r="B36" s="9">
         <v>2.82852604730628e-7</v>
       </c>
-      <c r="C36" s="2">
+      <c r="C36" s="9">
         <v>0.00835716866426127</v>
       </c>
     </row>
     <row r="37" spans="1:3">
-      <c r="A37" s="1">
+      <c r="A37" s="8">
         <v>85000</v>
       </c>
-      <c r="B37" s="2">
+      <c r="B37" s="9">
         <v>1.93158819249242e-7</v>
       </c>
-      <c r="C37" s="2">
+      <c r="C37" s="9">
         <v>0.00741301975732819</v>
       </c>
     </row>
     <row r="38" spans="1:3">
-      <c r="A38" s="1">
+      <c r="A38" s="8">
         <v>90000</v>
       </c>
-      <c r="B38" s="2">
+      <c r="B38" s="9">
         <v>5.43837642117104e-8</v>
       </c>
-      <c r="C38" s="2">
+      <c r="C38" s="9">
         <v>0.00655131279121198</v>
       </c>
     </row>
     <row r="39" spans="1:3">
-      <c r="A39" s="1">
+      <c r="A39" s="8">
         <v>95000</v>
       </c>
-      <c r="B39" s="2">
+      <c r="B39" s="9">
         <v>5.0519539541348e-8</v>
       </c>
-      <c r="C39" s="2">
+      <c r="C39" s="9">
         <v>0.00581633034991144</v>
       </c>
     </row>
     <row r="40" spans="1:3">
-      <c r="A40" s="1">
+      <c r="A40" s="8">
         <v>100000</v>
       </c>
-      <c r="B40" s="2">
+      <c r="B40" s="9">
         <v>4.09233876948704e-8</v>
       </c>
-      <c r="C40" s="2">
+      <c r="C40" s="9">
         <v>0.00516855126638408</v>
       </c>
     </row>
     <row r="41" spans="1:3">
-      <c r="A41" s="1">
+      <c r="A41" s="8">
         <v>150000</v>
       </c>
-      <c r="B41" s="2">
+      <c r="B41" s="9">
         <v>4.22418915464744e-9</v>
       </c>
-      <c r="C41" s="2">
+      <c r="C41" s="9">
         <v>0.00169365295806976</v>
       </c>
     </row>
     <row r="42" spans="1:3">
-      <c r="A42" s="1">
+      <c r="A42" s="8">
         <v>200000</v>
       </c>
-      <c r="B42" s="2">
+      <c r="B42" s="9">
         <v>7.53519703497365e-10</v>
       </c>
-      <c r="C42" s="2">
+      <c r="C42" s="9">
         <v>0.00086262115290376</v>
       </c>
     </row>
     <row r="43" spans="1:3">
-      <c r="A43" s="1">
+      <c r="A43" s="8">
         <v>250000</v>
       </c>
-      <c r="B43" s="2">
+      <c r="B43" s="9">
         <v>6.65021488609488e-10</v>
       </c>
-      <c r="C43" s="2">
+      <c r="C43" s="9">
         <v>0.000493766864640538</v>
       </c>
     </row>
     <row r="44" spans="1:3">
-      <c r="A44" s="1">
+      <c r="A44" s="8">
         <v>300000</v>
       </c>
-      <c r="B44" s="2">
+      <c r="B44" s="9">
         <v>4.60205450167756e-10</v>
       </c>
-      <c r="C44" s="2">
+      <c r="C44" s="9">
         <v>0.000319293526495073</v>
       </c>
     </row>
     <row r="45" spans="1:3">
-      <c r="A45" s="1">
+      <c r="A45" s="8">
         <v>350000</v>
       </c>
-      <c r="B45" s="2">
+      <c r="B45" s="9">
         <v>3.43333729141525e-10</v>
       </c>
-      <c r="C45" s="2">
+      <c r="C45" s="9">
         <v>0.000253028175096927</v>
       </c>
     </row>
     <row r="46" spans="1:3">
-      <c r="A46" s="1">
+      <c r="A46" s="8">
         <v>400000</v>
       </c>
-      <c r="B46" s="2">
+      <c r="B46" s="9">
         <v>2.81180700584703e-10</v>
       </c>
-      <c r="C46" s="2">
+      <c r="C46" s="9">
         <v>0.000220923703098579</v>
       </c>
     </row>
     <row r="47" spans="1:3">
-      <c r="A47" s="1">
+      <c r="A47" s="8">
         <v>450000</v>
       </c>
-      <c r="B47" s="2">
+      <c r="B47" s="9">
         <v>2.31602416875254e-10</v>
       </c>
-      <c r="C47" s="2">
+      <c r="C47" s="9">
         <v>0.000208910419019676</v>
       </c>
     </row>
     <row r="48" spans="1:3">
-      <c r="A48" s="1">
+      <c r="A48" s="8">
         <v>500000</v>
       </c>
-      <c r="B48" s="2">
+      <c r="B48" s="9">
         <v>1.91010028667851e-10</v>
       </c>
-      <c r="C48" s="2">
+      <c r="C48" s="9">
         <v>0.000192880576253762</v>
       </c>
     </row>
     <row r="49" spans="1:3">
-      <c r="A49" s="1">
+      <c r="A49" s="8">
         <v>550000</v>
       </c>
-      <c r="B49" s="2">
+      <c r="B49" s="9">
         <v>1.76924003943202e-10</v>
       </c>
-      <c r="C49" s="2">
+      <c r="C49" s="9">
         <v>0.000165939631126081</v>
       </c>
     </row>
     <row r="50" spans="1:3">
-      <c r="A50" s="1">
+      <c r="A50" s="8">
         <v>600000</v>
       </c>
-      <c r="B50" s="2">
+      <c r="B50" s="9">
         <v>1.54412485340711e-10</v>
       </c>
-      <c r="C50" s="2">
+      <c r="C50" s="9">
         <v>0.00013859843890795</v>
       </c>
     </row>
     <row r="51" spans="1:3">
-      <c r="A51" s="1">
+      <c r="A51" s="8">
         <v>650000</v>
       </c>
-      <c r="B51" s="2">
+      <c r="B51" s="9">
         <v>1.35459022859747e-10</v>
       </c>
-      <c r="C51" s="2">
+      <c r="C51" s="9">
         <v>0.000125538190009421</v>
       </c>
     </row>
     <row r="52" spans="1:3">
-      <c r="A52" s="1">
+      <c r="A52" s="8">
         <v>700000</v>
       </c>
-      <c r="B52" s="2">
+      <c r="B52" s="9">
         <v>1.23859310401327e-10</v>
       </c>
-      <c r="C52" s="2">
+      <c r="C52" s="9">
         <v>0.000103218430070726</v>
       </c>
     </row>
     <row r="53" spans="1:3">
-      <c r="A53" s="1">
+      <c r="A53" s="8">
         <v>750000</v>
       </c>
-      <c r="B53" s="2">
+      <c r="B53" s="9">
         <v>1.19014136815785e-10</v>
       </c>
-      <c r="C53" s="2">
+      <c r="C53" s="9">
         <v>7.27307825160643e-5</v>
       </c>
     </row>
     <row r="54" spans="1:3">
-      <c r="A54" s="1">
+      <c r="A54" s="8">
         <v>800000</v>
       </c>
-      <c r="B54" s="2">
+      <c r="B54" s="9">
         <v>1.17563084266299e-10</v>
       </c>
-      <c r="C54" s="2">
+      <c r="C54" s="9">
         <v>7.09019488910948e-5</v>
       </c>
     </row>
     <row r="55" spans="1:3">
-      <c r="A55" s="1">
+      <c r="A55" s="8">
         <v>850000</v>
       </c>
-      <c r="B55" s="2">
+      <c r="B55" s="9">
         <v>1.10719784862629e-10</v>
       </c>
-      <c r="C55" s="2">
+      <c r="C55" s="9">
         <v>6.91897426134605e-5</v>
       </c>
     </row>
     <row r="56" spans="1:3">
-      <c r="A56" s="1">
+      <c r="A56" s="8">
         <v>900000</v>
       </c>
-      <c r="B56" s="2">
+      <c r="B56" s="9">
         <v>1.07922170886086e-10</v>
       </c>
-      <c r="C56" s="2">
+      <c r="C56" s="9">
         <v>6.68377523061003e-5</v>
       </c>
     </row>
     <row r="57" spans="1:3">
-      <c r="A57" s="1">
+      <c r="A57" s="8">
         <v>950000</v>
       </c>
-      <c r="B57" s="2">
+      <c r="B57" s="9">
         <v>8.43919934379294e-11</v>
       </c>
-      <c r="C57" s="2">
+      <c r="C57" s="9">
         <v>6.48563820083136e-5</v>
       </c>
     </row>
     <row r="58" spans="1:3">
-      <c r="A58" s="1">
+      <c r="A58" s="8">
         <v>1000000</v>
       </c>
-      <c r="B58" s="2">
+      <c r="B58" s="9">
         <v>7.64780881150729e-11</v>
       </c>
-      <c r="C58" s="2">
+      <c r="C58" s="9">
         <v>5.88636604019573e-5</v>
       </c>
     </row>
     <row r="76" spans="1:9">
-      <c r="A76" s="1" t="s">
+      <c r="A76" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B76" s="1"/>
-      <c r="C76" s="1"/>
-      <c r="D76" s="1"/>
-      <c r="E76" s="1"/>
-      <c r="F76" s="1"/>
-      <c r="G76" s="1"/>
-      <c r="H76" s="1"/>
-      <c r="I76" s="1"/>
+      <c r="B76" s="8"/>
+      <c r="C76" s="8"/>
+      <c r="D76" s="8"/>
+      <c r="E76" s="8"/>
+      <c r="F76" s="8"/>
+      <c r="G76" s="8"/>
+      <c r="H76" s="8"/>
+      <c r="I76" s="8"/>
     </row>
     <row r="77" spans="1:9">
-      <c r="A77" s="1" t="s">
+      <c r="A77" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="B77" s="1"/>
-      <c r="C77" s="1"/>
-      <c r="D77" s="1"/>
-      <c r="E77" s="1"/>
-      <c r="F77" s="1"/>
-      <c r="G77" s="1"/>
-      <c r="H77" s="1"/>
-      <c r="I77" s="1"/>
+      <c r="B77" s="8"/>
+      <c r="C77" s="8"/>
+      <c r="D77" s="8"/>
+      <c r="E77" s="8"/>
+      <c r="F77" s="8"/>
+      <c r="G77" s="8"/>
+      <c r="H77" s="8"/>
+      <c r="I77" s="8"/>
     </row>
     <row r="78" spans="1:9">
-      <c r="A78" s="1" t="s">
+      <c r="A78" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B78" s="1"/>
-      <c r="C78" s="1"/>
-      <c r="D78" s="1"/>
-      <c r="E78" s="1"/>
-      <c r="F78" s="1"/>
-      <c r="G78" s="1"/>
-      <c r="H78" s="1"/>
-      <c r="I78" s="1"/>
+      <c r="B78" s="8"/>
+      <c r="C78" s="8"/>
+      <c r="D78" s="8"/>
+      <c r="E78" s="8"/>
+      <c r="F78" s="8"/>
+      <c r="G78" s="8"/>
+      <c r="H78" s="8"/>
+      <c r="I78" s="8"/>
     </row>
     <row r="79" spans="1:9">
-      <c r="A79" s="1" t="s">
+      <c r="A79" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B79" s="1"/>
-      <c r="C79" s="1"/>
-      <c r="D79" s="1"/>
-      <c r="E79" s="1"/>
-      <c r="F79" s="1"/>
-      <c r="G79" s="1"/>
-      <c r="H79" s="1"/>
-      <c r="I79" s="1"/>
+      <c r="B79" s="8"/>
+      <c r="C79" s="8"/>
+      <c r="D79" s="8"/>
+      <c r="E79" s="8"/>
+      <c r="F79" s="8"/>
+      <c r="G79" s="8"/>
+      <c r="H79" s="8"/>
+      <c r="I79" s="8"/>
     </row>
     <row r="80" spans="1:9">
-      <c r="A80" s="1" t="s">
+      <c r="A80" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="B80" s="1"/>
-      <c r="C80" s="1"/>
-      <c r="D80" s="1"/>
-      <c r="E80" s="1"/>
-      <c r="F80" s="1"/>
-      <c r="G80" s="1"/>
-      <c r="H80" s="1"/>
-      <c r="I80" s="1"/>
+      <c r="B80" s="8"/>
+      <c r="C80" s="8"/>
+      <c r="D80" s="8"/>
+      <c r="E80" s="8"/>
+      <c r="F80" s="8"/>
+      <c r="G80" s="8"/>
+      <c r="H80" s="8"/>
+      <c r="I80" s="8"/>
     </row>
     <row r="81" spans="1:9">
-      <c r="A81" s="1" t="s">
+      <c r="A81" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="B81" s="2"/>
-      <c r="C81" s="2"/>
-      <c r="D81" s="1"/>
-      <c r="E81" s="1"/>
-      <c r="F81" s="1"/>
-      <c r="G81" s="1"/>
-      <c r="H81" s="1"/>
-      <c r="I81" s="1"/>
+      <c r="B81" s="9"/>
+      <c r="C81" s="9"/>
+      <c r="D81" s="8"/>
+      <c r="E81" s="8"/>
+      <c r="F81" s="8"/>
+      <c r="G81" s="8"/>
+      <c r="H81" s="8"/>
+      <c r="I81" s="8"/>
     </row>
     <row r="82" spans="1:9">
-      <c r="A82" s="1" t="s">
+      <c r="A82" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="B82" s="2"/>
-      <c r="C82" s="2"/>
-      <c r="D82" s="1"/>
-      <c r="E82" s="1"/>
-      <c r="F82" s="1"/>
-      <c r="G82" s="1"/>
-      <c r="H82" s="1"/>
-      <c r="I82" s="1"/>
+      <c r="B82" s="9"/>
+      <c r="C82" s="9"/>
+      <c r="D82" s="8"/>
+      <c r="E82" s="8"/>
+      <c r="F82" s="8"/>
+      <c r="G82" s="8"/>
+      <c r="H82" s="8"/>
+      <c r="I82" s="8"/>
     </row>
     <row r="83" spans="1:9">
-      <c r="A83" s="1" t="s">
+      <c r="A83" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="B83" s="2"/>
-      <c r="C83" s="2"/>
-      <c r="D83" s="1"/>
-      <c r="E83" s="1"/>
-      <c r="F83" s="1"/>
-      <c r="G83" s="1"/>
-      <c r="H83" s="1"/>
-      <c r="I83" s="1"/>
+      <c r="B83" s="9"/>
+      <c r="C83" s="9"/>
+      <c r="D83" s="8"/>
+      <c r="E83" s="8"/>
+      <c r="F83" s="8"/>
+      <c r="G83" s="8"/>
+      <c r="H83" s="8"/>
+      <c r="I83" s="8"/>
     </row>
     <row r="84" spans="1:9">
-      <c r="A84" s="1" t="s">
+      <c r="A84" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="B84" s="2"/>
-      <c r="C84" s="2"/>
-      <c r="D84" s="1"/>
-      <c r="E84" s="1"/>
-      <c r="F84" s="1"/>
-      <c r="G84" s="1"/>
-      <c r="H84" s="1"/>
-      <c r="I84" s="1"/>
+      <c r="B84" s="9"/>
+      <c r="C84" s="9"/>
+      <c r="D84" s="8"/>
+      <c r="E84" s="8"/>
+      <c r="F84" s="8"/>
+      <c r="G84" s="8"/>
+      <c r="H84" s="8"/>
+      <c r="I84" s="8"/>
     </row>
     <row r="85" spans="1:1">
       <c r="A85" t="s">
@@ -15441,769 +15481,771 @@
   <sheetPr/>
   <dimension ref="A1:I85"/>
   <sheetViews>
-    <sheetView topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="A76" sqref="A76:A85"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="2" max="3" width="12.625"/>
+    <col min="2" max="2" width="12.625"/>
+    <col min="3" max="3" width="14.875"/>
+    <col min="7" max="7" width="9.75"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="8" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="1">
+      <c r="A2" s="8">
         <v>5</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2" s="8">
         <v>4128.07532900128</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2" s="8">
         <v>4080.88728744556</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="1">
+      <c r="A3" s="8">
         <v>50</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="9">
         <v>3912.34573440084</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="8">
         <v>3836.23029949099</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="1">
+      <c r="A4" s="8">
         <v>100</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="9">
         <v>3830.94526779575</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="8">
         <v>3800.29229495294</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="1">
+      <c r="A5" s="8">
         <v>500</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="9">
         <v>1756.93866609966</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" s="8">
         <v>2998.97791713396</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="1">
+      <c r="A6" s="8">
         <v>1000</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="9">
         <v>1129.62808542076</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="8">
         <v>1925.00258073997</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="1">
+      <c r="A7" s="8">
         <v>1500</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7" s="8">
         <v>857.62046684161</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7" s="8">
         <v>1270.57756383226</v>
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="1">
+      <c r="A8" s="8">
         <v>2000</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B8" s="8">
         <v>678.333273224158</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8" s="8">
         <v>815.705545590668</v>
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="1">
+      <c r="A9" s="8">
         <v>2500</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B9" s="8">
         <v>580.426568036076</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C9" s="8">
         <v>600.083722240977</v>
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="1">
+      <c r="A10" s="8">
         <v>3000</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B10" s="8">
         <v>508.909622911885</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C10" s="8">
         <v>501.403266241074</v>
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="1">
+      <c r="A11" s="8">
         <v>3500</v>
       </c>
-      <c r="B11" s="1">
+      <c r="B11" s="8">
         <v>467.664117370666</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C11" s="8">
         <v>428.458205924776</v>
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="1">
+      <c r="A12" s="8">
         <v>4000</v>
       </c>
-      <c r="B12" s="1">
+      <c r="B12" s="8">
         <v>425.08537912316</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C12" s="8">
         <v>380.519670927759</v>
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="1">
+      <c r="A13" s="8">
         <v>4500</v>
       </c>
-      <c r="B13" s="1">
+      <c r="B13" s="8">
         <v>369.449389314018</v>
       </c>
-      <c r="C13" s="1">
+      <c r="C13" s="8">
         <v>343.101635007666</v>
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="1">
+      <c r="A14" s="8">
         <v>5000</v>
       </c>
-      <c r="B14" s="1">
+      <c r="B14" s="8">
         <v>318.598340067757</v>
       </c>
-      <c r="C14" s="1">
+      <c r="C14" s="8">
         <v>325.647724805853</v>
       </c>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" s="1">
+      <c r="A15" s="8">
         <v>6000</v>
       </c>
-      <c r="B15" s="1">
+      <c r="B15" s="8">
         <v>247.905153755364</v>
       </c>
-      <c r="C15" s="1">
+      <c r="C15" s="8">
         <v>269.937630231753</v>
       </c>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16" s="1">
+      <c r="A16" s="8">
         <v>7000</v>
       </c>
-      <c r="B16" s="1">
+      <c r="B16" s="8">
         <v>211.148459108435</v>
       </c>
-      <c r="C16" s="1">
+      <c r="C16" s="8">
         <v>262.189056424262</v>
       </c>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="1">
+      <c r="A17" s="8">
         <v>8000</v>
       </c>
-      <c r="B17" s="1">
+      <c r="B17" s="8">
         <v>176.562978549403</v>
       </c>
-      <c r="C17" s="1">
+      <c r="C17" s="8">
         <v>248.347845392195</v>
       </c>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="1">
+      <c r="A18" s="8">
         <v>9000</v>
       </c>
-      <c r="B18" s="1">
+      <c r="B18" s="8">
         <v>153.647135579252</v>
       </c>
-      <c r="C18" s="1">
+      <c r="C18" s="8">
         <v>243.011376576974</v>
       </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="1">
+      <c r="A19" s="8">
         <v>10000</v>
       </c>
-      <c r="B19" s="1">
+      <c r="B19" s="8">
         <v>130.858828461116</v>
       </c>
-      <c r="C19" s="1">
+      <c r="C19" s="8">
         <v>233.093405510493</v>
       </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="1">
+      <c r="A20" s="8">
         <v>12000</v>
       </c>
-      <c r="B20" s="1">
+      <c r="B20" s="8">
         <v>94.8441886932781</v>
       </c>
-      <c r="C20" s="1">
+      <c r="C20" s="8">
         <v>210.16378311617</v>
       </c>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="1">
+      <c r="A21" s="8">
         <v>14000</v>
       </c>
-      <c r="B21" s="1">
+      <c r="B21" s="8">
         <v>77.2445525231992</v>
       </c>
-      <c r="C21" s="1">
+      <c r="C21" s="8">
         <v>182.274209425099</v>
       </c>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" s="1">
+      <c r="A22" s="8">
         <v>16000</v>
       </c>
-      <c r="B22" s="1">
+      <c r="B22" s="8">
         <v>48.3309546333727</v>
       </c>
-      <c r="C22" s="1">
+      <c r="C22" s="8">
         <v>166.936805636599</v>
       </c>
     </row>
     <row r="23" spans="1:3">
-      <c r="A23" s="1">
+      <c r="A23" s="8">
         <v>18000</v>
       </c>
-      <c r="B23" s="1">
+      <c r="B23" s="8">
         <v>35.3251999345184</v>
       </c>
-      <c r="C23" s="1">
+      <c r="C23" s="8">
         <v>139.621709878043</v>
       </c>
     </row>
     <row r="24" spans="1:3">
-      <c r="A24" s="1">
+      <c r="A24" s="8">
         <v>20000</v>
       </c>
-      <c r="B24" s="1">
+      <c r="B24" s="8">
         <v>25.145922277159</v>
       </c>
-      <c r="C24" s="1">
+      <c r="C24" s="8">
         <v>121.340611940874</v>
       </c>
     </row>
     <row r="25" spans="1:3">
-      <c r="A25" s="1">
+      <c r="A25" s="8">
         <v>25000</v>
       </c>
-      <c r="B25" s="1">
+      <c r="B25" s="8">
         <v>2.37035683793172</v>
       </c>
-      <c r="C25" s="1">
+      <c r="C25" s="8">
         <v>90.6835522013545</v>
       </c>
     </row>
     <row r="26" spans="1:3">
-      <c r="A26" s="1">
+      <c r="A26" s="8">
         <v>30000</v>
       </c>
-      <c r="B26" s="1">
+      <c r="B26" s="8">
         <v>2.36889396795195</v>
       </c>
-      <c r="C26" s="1">
+      <c r="C26" s="8">
         <v>73.4542477660983</v>
       </c>
     </row>
     <row r="27" spans="1:3">
-      <c r="A27" s="1">
+      <c r="A27" s="8">
         <v>35000</v>
       </c>
-      <c r="B27" s="1">
+      <c r="B27" s="8">
         <v>2.36889396795178</v>
       </c>
-      <c r="C27" s="1">
+      <c r="C27" s="8">
         <v>66.3256614625196</v>
       </c>
     </row>
     <row r="28" spans="1:3">
-      <c r="A28" s="1">
+      <c r="A28" s="8">
         <v>40000</v>
       </c>
-      <c r="B28" s="1">
+      <c r="B28" s="8">
         <v>0.000127275663016916</v>
       </c>
-      <c r="C28" s="1">
+      <c r="C28" s="8">
         <v>57.0141779581701</v>
       </c>
     </row>
     <row r="29" spans="1:3">
-      <c r="A29" s="1">
+      <c r="A29" s="8">
         <v>45000</v>
       </c>
-      <c r="B29" s="1">
+      <c r="B29" s="8">
         <v>0.000127275662853207</v>
       </c>
-      <c r="C29" s="1">
+      <c r="C29" s="8">
         <v>42.6610733573136</v>
       </c>
     </row>
     <row r="30" spans="1:3">
-      <c r="A30" s="1">
+      <c r="A30" s="8">
         <v>50000</v>
       </c>
-      <c r="B30" s="1">
+      <c r="B30" s="8">
         <v>0.000127275662762258</v>
       </c>
-      <c r="C30" s="1">
+      <c r="C30" s="8">
         <v>37.9003943524379</v>
       </c>
     </row>
     <row r="31" spans="1:3">
-      <c r="A31" s="1">
+      <c r="A31" s="8">
         <v>55000</v>
       </c>
-      <c r="B31" s="2">
+      <c r="B31" s="9">
         <v>0.000127275662744068</v>
       </c>
-      <c r="C31" s="1">
+      <c r="C31" s="8">
         <v>29.1899497230478</v>
       </c>
     </row>
     <row r="32" spans="1:3">
-      <c r="A32" s="1">
+      <c r="A32" s="8">
         <v>60000</v>
       </c>
-      <c r="B32" s="2">
+      <c r="B32" s="9">
         <v>0.000127275662671308</v>
       </c>
-      <c r="C32" s="1">
+      <c r="C32" s="8">
         <v>24.514595460681</v>
       </c>
     </row>
     <row r="33" spans="1:3">
-      <c r="A33" s="1">
+      <c r="A33" s="8">
         <v>65000</v>
       </c>
-      <c r="B33" s="2">
+      <c r="B33" s="9">
         <v>0.000127275662653119</v>
       </c>
-      <c r="C33" s="1">
+      <c r="C33" s="8">
         <v>22.083646699431</v>
       </c>
     </row>
     <row r="34" spans="1:3">
-      <c r="A34" s="1">
+      <c r="A34" s="8">
         <v>70000</v>
       </c>
-      <c r="B34" s="2">
+      <c r="B34" s="9">
         <v>0.000127275662634929</v>
       </c>
-      <c r="C34" s="1">
+      <c r="C34" s="8">
         <v>14.2127274382957</v>
       </c>
     </row>
     <row r="35" spans="1:3">
-      <c r="A35" s="1">
+      <c r="A35" s="8">
         <v>75000</v>
       </c>
-      <c r="B35" s="2">
+      <c r="B35" s="9">
         <v>0.000127275662634929</v>
       </c>
-      <c r="C35" s="1">
+      <c r="C35" s="8">
         <v>9.7068173944235</v>
       </c>
     </row>
     <row r="36" spans="1:3">
-      <c r="A36" s="1">
+      <c r="A36" s="8">
         <v>80000</v>
       </c>
-      <c r="B36" s="2">
+      <c r="B36" s="9">
         <v>0.000127275662634929</v>
       </c>
-      <c r="C36" s="1">
+      <c r="C36" s="8">
         <v>7.10642736142839</v>
       </c>
     </row>
     <row r="37" spans="1:3">
-      <c r="A37" s="1">
+      <c r="A37" s="8">
         <v>85000</v>
       </c>
-      <c r="B37" s="2">
+      <c r="B37" s="9">
         <v>0.000127275662634929</v>
       </c>
-      <c r="C37" s="1">
+      <c r="C37" s="8">
         <v>7.10642735258469</v>
       </c>
     </row>
     <row r="38" spans="1:3">
-      <c r="A38" s="1">
+      <c r="A38" s="8">
         <v>90000</v>
       </c>
-      <c r="B38" s="2">
+      <c r="B38" s="9">
         <v>0.000127275662634929</v>
       </c>
-      <c r="C38" s="1">
+      <c r="C38" s="8">
         <v>7.10642735253491</v>
       </c>
     </row>
     <row r="39" spans="1:3">
-      <c r="A39" s="1">
+      <c r="A39" s="8">
         <v>95000</v>
       </c>
-      <c r="B39" s="2">
+      <c r="B39" s="9">
         <v>0.000127275662616739</v>
       </c>
-      <c r="C39" s="1">
+      <c r="C39" s="8">
         <v>7.10642735253491</v>
       </c>
     </row>
     <row r="40" spans="1:3">
-      <c r="A40" s="1">
+      <c r="A40" s="8">
         <v>100000</v>
       </c>
-      <c r="B40" s="2">
+      <c r="B40" s="9">
         <v>0.000127275662598549</v>
       </c>
-      <c r="C40" s="1">
+      <c r="C40" s="8">
         <v>7.1064273525348</v>
       </c>
     </row>
     <row r="41" spans="1:3">
-      <c r="A41" s="1">
+      <c r="A41" s="8">
         <v>150000</v>
       </c>
-      <c r="B41" s="2">
+      <c r="B41" s="9">
         <v>0.000127275662580359</v>
       </c>
-      <c r="C41" s="1">
+      <c r="C41" s="8">
         <v>4.73766066024494</v>
       </c>
     </row>
     <row r="42" spans="1:3">
-      <c r="A42" s="1">
+      <c r="A42" s="8">
         <v>200000</v>
       </c>
-      <c r="B42" s="2">
+      <c r="B42" s="9">
         <v>0.000127275662580359</v>
       </c>
-      <c r="C42" s="1">
+      <c r="C42" s="9">
         <v>0.000127275665399793</v>
       </c>
     </row>
     <row r="43" spans="1:3">
-      <c r="A43" s="1">
+      <c r="A43" s="8">
         <v>250000</v>
       </c>
-      <c r="B43" s="2">
+      <c r="B43" s="9">
         <v>0.000127275662580359</v>
       </c>
-      <c r="C43" s="1">
+      <c r="C43" s="9">
         <v>0.000127275665163324</v>
       </c>
     </row>
     <row r="44" spans="1:3">
-      <c r="A44" s="1">
+      <c r="A44" s="8">
         <v>300000</v>
       </c>
-      <c r="B44" s="2">
+      <c r="B44" s="9">
         <v>0.000127275662562169</v>
       </c>
-      <c r="C44" s="1">
+      <c r="C44" s="9">
         <v>0.000127275665017805</v>
       </c>
     </row>
     <row r="45" spans="1:3">
-      <c r="A45" s="1">
+      <c r="A45" s="8">
         <v>350000</v>
       </c>
-      <c r="B45" s="2">
+      <c r="B45" s="9">
         <v>0.000127275662525789</v>
       </c>
-      <c r="C45" s="1">
+      <c r="C45" s="9">
         <v>0.000127275664926855</v>
       </c>
     </row>
     <row r="46" spans="1:3">
-      <c r="A46" s="1">
+      <c r="A46" s="8">
         <v>400000</v>
       </c>
-      <c r="B46" s="2">
+      <c r="B46" s="9">
         <v>0.000127275662525789</v>
       </c>
-      <c r="C46" s="1">
+      <c r="C46" s="9">
         <v>0.000127275664781336</v>
       </c>
     </row>
     <row r="47" spans="1:3">
-      <c r="A47" s="1">
+      <c r="A47" s="8">
         <v>450000</v>
       </c>
-      <c r="B47" s="2">
+      <c r="B47" s="9">
         <v>0.000127275662525789</v>
       </c>
-      <c r="C47" s="1">
+      <c r="C47" s="9">
         <v>0.000127275664544868</v>
       </c>
     </row>
     <row r="48" spans="1:3">
-      <c r="A48" s="1">
+      <c r="A48" s="8">
         <v>500000</v>
       </c>
-      <c r="B48" s="2">
+      <c r="B48" s="9">
         <v>0.000127275662525789</v>
       </c>
-      <c r="C48" s="1">
+      <c r="C48" s="9">
         <v>0.000127275664490298</v>
       </c>
     </row>
     <row r="49" spans="1:3">
-      <c r="A49" s="1">
+      <c r="A49" s="8">
         <v>550000</v>
       </c>
-      <c r="B49" s="2">
+      <c r="B49" s="9">
         <v>0.000127275662525789</v>
       </c>
-      <c r="C49" s="1">
+      <c r="C49" s="9">
         <v>0.000127275664435728</v>
       </c>
     </row>
     <row r="50" spans="1:3">
-      <c r="A50" s="1">
+      <c r="A50" s="8">
         <v>600000</v>
       </c>
-      <c r="B50" s="2">
+      <c r="B50" s="9">
         <v>0.000127275662525789</v>
       </c>
-      <c r="C50" s="1">
+      <c r="C50" s="9">
         <v>0.000127275664326589</v>
       </c>
     </row>
     <row r="51" spans="1:3">
-      <c r="A51" s="1">
+      <c r="A51" s="8">
         <v>650000</v>
       </c>
-      <c r="B51" s="2">
+      <c r="B51" s="9">
         <v>0.000127275662525789</v>
       </c>
-      <c r="C51" s="1">
+      <c r="C51" s="9">
         <v>0.000127275664290209</v>
       </c>
     </row>
     <row r="52" spans="1:3">
-      <c r="A52" s="1">
+      <c r="A52" s="8">
         <v>700000</v>
       </c>
-      <c r="B52" s="2">
+      <c r="B52" s="9">
         <v>0.000127275662525789</v>
       </c>
-      <c r="C52" s="1">
+      <c r="C52" s="9">
         <v>0.000127275664235639</v>
       </c>
     </row>
     <row r="53" spans="1:3">
-      <c r="A53" s="1">
+      <c r="A53" s="8">
         <v>750000</v>
       </c>
-      <c r="B53" s="2">
+      <c r="B53" s="9">
         <v>0.000127275662507599</v>
       </c>
-      <c r="C53" s="1">
+      <c r="C53" s="9">
         <v>0.00012727566419926</v>
       </c>
     </row>
     <row r="54" spans="1:3">
-      <c r="A54" s="1">
+      <c r="A54" s="8">
         <v>800000</v>
       </c>
-      <c r="B54" s="2">
+      <c r="B54" s="9">
         <v>0.000127275662507599</v>
       </c>
-      <c r="C54" s="1">
+      <c r="C54" s="9">
         <v>0.00012727566410831</v>
       </c>
     </row>
     <row r="55" spans="1:3">
-      <c r="A55" s="1">
+      <c r="A55" s="8">
         <v>850000</v>
       </c>
-      <c r="B55" s="2">
+      <c r="B55" s="9">
         <v>0.000127275662507599</v>
       </c>
-      <c r="C55" s="1">
+      <c r="C55" s="9">
         <v>0.00012727566409012</v>
       </c>
     </row>
     <row r="56" spans="1:3">
-      <c r="A56" s="1">
+      <c r="A56" s="8">
         <v>900000</v>
       </c>
-      <c r="B56" s="2">
+      <c r="B56" s="9">
         <v>0.000127275662507599</v>
       </c>
-      <c r="C56" s="1">
+      <c r="C56" s="9">
         <v>0.000127275663980981</v>
       </c>
     </row>
     <row r="57" spans="1:3">
-      <c r="A57" s="1">
+      <c r="A57" s="8">
         <v>950000</v>
       </c>
-      <c r="B57" s="2">
+      <c r="B57" s="9">
         <v>0.00012727566248941</v>
       </c>
-      <c r="C57" s="1">
+      <c r="C57" s="9">
         <v>0.000127275663980981</v>
       </c>
     </row>
     <row r="58" spans="1:3">
-      <c r="A58" s="1">
+      <c r="A58" s="8">
         <v>1000000</v>
       </c>
-      <c r="B58" s="2">
+      <c r="B58" s="9">
         <v>0.00012727566248941</v>
       </c>
-      <c r="C58" s="1">
+      <c r="C58" s="9">
         <v>0.000127275663944601</v>
       </c>
     </row>
     <row r="76" spans="1:9">
-      <c r="A76" s="1" t="s">
+      <c r="A76" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B76" s="1"/>
-      <c r="C76" s="1"/>
-      <c r="D76" s="1"/>
-      <c r="E76" s="1"/>
-      <c r="F76" s="1"/>
-      <c r="G76" s="1"/>
-      <c r="H76" s="1"/>
-      <c r="I76" s="1"/>
+      <c r="B76" s="8"/>
+      <c r="C76" s="8"/>
+      <c r="D76" s="8"/>
+      <c r="E76" s="8"/>
+      <c r="F76" s="8"/>
+      <c r="G76" s="8"/>
+      <c r="H76" s="8"/>
+      <c r="I76" s="8"/>
     </row>
     <row r="77" spans="1:9">
-      <c r="A77" s="1" t="s">
+      <c r="A77" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="B77" s="1"/>
-      <c r="C77" s="1"/>
-      <c r="D77" s="1"/>
-      <c r="E77" s="1"/>
-      <c r="F77" s="1"/>
-      <c r="G77" s="1"/>
-      <c r="H77" s="1"/>
-      <c r="I77" s="1"/>
+      <c r="B77" s="8"/>
+      <c r="C77" s="8"/>
+      <c r="D77" s="8"/>
+      <c r="E77" s="8"/>
+      <c r="F77" s="8"/>
+      <c r="G77" s="8"/>
+      <c r="H77" s="8"/>
+      <c r="I77" s="8"/>
     </row>
     <row r="78" spans="1:9">
-      <c r="A78" s="1" t="s">
+      <c r="A78" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B78" s="1"/>
-      <c r="C78" s="1"/>
-      <c r="D78" s="1"/>
-      <c r="E78" s="1"/>
-      <c r="F78" s="1"/>
-      <c r="G78" s="1"/>
-      <c r="H78" s="1"/>
-      <c r="I78" s="1"/>
+      <c r="B78" s="8"/>
+      <c r="C78" s="8"/>
+      <c r="D78" s="8"/>
+      <c r="E78" s="8"/>
+      <c r="F78" s="8"/>
+      <c r="G78" s="8"/>
+      <c r="H78" s="8"/>
+      <c r="I78" s="8"/>
     </row>
     <row r="79" spans="1:9">
-      <c r="A79" s="1" t="s">
+      <c r="A79" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B79" s="1"/>
-      <c r="C79" s="1"/>
-      <c r="D79" s="1"/>
-      <c r="E79" s="1"/>
-      <c r="F79" s="1"/>
-      <c r="G79" s="1"/>
-      <c r="H79" s="1"/>
-      <c r="I79" s="1"/>
+      <c r="B79" s="8"/>
+      <c r="C79" s="8"/>
+      <c r="D79" s="8"/>
+      <c r="E79" s="8"/>
+      <c r="F79" s="8"/>
+      <c r="G79" s="8"/>
+      <c r="H79" s="8"/>
+      <c r="I79" s="8"/>
     </row>
     <row r="80" spans="1:9">
-      <c r="A80" s="1" t="s">
+      <c r="A80" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B80" s="1"/>
-      <c r="C80" s="1"/>
-      <c r="D80" s="1"/>
-      <c r="E80" s="1"/>
-      <c r="F80" s="1"/>
-      <c r="G80" s="1"/>
-      <c r="H80" s="1"/>
-      <c r="I80" s="1"/>
+      <c r="B80" s="8"/>
+      <c r="C80" s="8"/>
+      <c r="D80" s="8"/>
+      <c r="E80" s="8"/>
+      <c r="F80" s="8"/>
+      <c r="G80" s="8"/>
+      <c r="H80" s="8"/>
+      <c r="I80" s="8"/>
     </row>
     <row r="81" spans="1:9">
-      <c r="A81" s="1" t="s">
+      <c r="A81" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="B81" s="2"/>
-      <c r="C81" s="1"/>
-      <c r="D81" s="1"/>
-      <c r="E81" s="1"/>
-      <c r="F81" s="1"/>
-      <c r="G81" s="1"/>
-      <c r="H81" s="1"/>
-      <c r="I81" s="1"/>
+      <c r="B81" s="9"/>
+      <c r="C81" s="8"/>
+      <c r="D81" s="8"/>
+      <c r="E81" s="8"/>
+      <c r="F81" s="8"/>
+      <c r="G81" s="8"/>
+      <c r="H81" s="8"/>
+      <c r="I81" s="8"/>
     </row>
     <row r="82" spans="1:9">
-      <c r="A82" s="1" t="s">
+      <c r="A82" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="B82" s="2"/>
-      <c r="C82" s="1"/>
-      <c r="D82" s="1"/>
-      <c r="E82" s="1"/>
-      <c r="F82" s="1"/>
-      <c r="G82" s="1"/>
-      <c r="H82" s="1"/>
-      <c r="I82" s="1"/>
+      <c r="B82" s="9"/>
+      <c r="C82" s="8"/>
+      <c r="D82" s="8"/>
+      <c r="E82" s="8"/>
+      <c r="F82" s="8"/>
+      <c r="G82" s="8"/>
+      <c r="H82" s="8"/>
+      <c r="I82" s="8"/>
     </row>
     <row r="83" spans="1:9">
-      <c r="A83" s="1" t="s">
+      <c r="A83" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="B83" s="2"/>
-      <c r="C83" s="1"/>
-      <c r="D83" s="1"/>
-      <c r="E83" s="1"/>
-      <c r="F83" s="1"/>
-      <c r="G83" s="1"/>
-      <c r="H83" s="1"/>
-      <c r="I83" s="1"/>
+      <c r="B83" s="9"/>
+      <c r="C83" s="8"/>
+      <c r="D83" s="8"/>
+      <c r="E83" s="8"/>
+      <c r="F83" s="8"/>
+      <c r="G83" s="8"/>
+      <c r="H83" s="8"/>
+      <c r="I83" s="8"/>
     </row>
     <row r="84" spans="1:9">
-      <c r="A84" s="1" t="s">
+      <c r="A84" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="B84" s="2"/>
-      <c r="C84" s="1"/>
-      <c r="D84" s="1"/>
-      <c r="E84" s="1"/>
-      <c r="F84" s="1"/>
-      <c r="G84" s="1"/>
-      <c r="H84" s="1"/>
-      <c r="I84" s="1"/>
+      <c r="B84" s="9"/>
+      <c r="C84" s="8"/>
+      <c r="D84" s="8"/>
+      <c r="E84" s="8"/>
+      <c r="F84" s="8"/>
+      <c r="G84" s="8"/>
+      <c r="H84" s="8"/>
+      <c r="I84" s="8"/>
     </row>
     <row r="85" spans="1:1">
       <c r="A85" t="s">
@@ -16222,8 +16264,8 @@
   <sheetPr/>
   <dimension ref="A1:H85"/>
   <sheetViews>
-    <sheetView topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="A76" sqref="A76:A85"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="7"/>
@@ -16232,750 +16274,750 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="8" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="1">
+      <c r="A2" s="8">
         <v>5</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2" s="8">
         <v>21.0502041297553</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2" s="8">
         <v>21.0327320845241</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="1">
+      <c r="A3" s="8">
         <v>50</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="9">
         <v>21.0166739398426</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="8">
         <v>20.9708539924406</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="1">
+      <c r="A4" s="8">
         <v>100</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="9">
         <v>21.0058765569497</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="8">
         <v>20.9699584554447</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="1">
+      <c r="A5" s="8">
         <v>500</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="9">
         <v>20.1312041779716</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" s="8">
         <v>20.9093408109343</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="1">
+      <c r="A6" s="8">
         <v>1000</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="9">
         <v>19.2877600990307</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="8">
         <v>20.7225639823787</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="1">
+      <c r="A7" s="8">
         <v>1500</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7" s="8">
         <v>19.0304479870447</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7" s="8">
         <v>20.4373090727542</v>
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="1">
+      <c r="A8" s="8">
         <v>2000</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B8" s="8">
         <v>18.6091304859988</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8" s="8">
         <v>19.9216885663469</v>
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="1">
+      <c r="A9" s="8">
         <v>2500</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B9" s="8">
         <v>18.1341342498955</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C9" s="8">
         <v>19.4868331544341</v>
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="1">
+      <c r="A10" s="8">
         <v>3000</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B10" s="8">
         <v>17.7765462702948</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C10" s="8">
         <v>18.6431401197717</v>
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="1">
+      <c r="A11" s="8">
         <v>3500</v>
       </c>
-      <c r="B11" s="1">
+      <c r="B11" s="8">
         <v>17.0229481417446</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C11" s="8">
         <v>17.3041801861722</v>
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="1">
+      <c r="A12" s="8">
         <v>4000</v>
       </c>
-      <c r="B12" s="1">
+      <c r="B12" s="8">
         <v>16.0305547520506</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C12" s="8">
         <v>15.5278090952175</v>
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="1">
+      <c r="A13" s="8">
         <v>4500</v>
       </c>
-      <c r="B13" s="1">
+      <c r="B13" s="8">
         <v>15.2189006371965</v>
       </c>
-      <c r="C13" s="1">
+      <c r="C13" s="8">
         <v>13.8098569528282</v>
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="1">
+      <c r="A14" s="8">
         <v>5000</v>
       </c>
-      <c r="B14" s="1">
+      <c r="B14" s="8">
         <v>13.6798814714499</v>
       </c>
-      <c r="C14" s="1">
+      <c r="C14" s="8">
         <v>12.6886317218729</v>
       </c>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" s="1">
+      <c r="A15" s="8">
         <v>6000</v>
       </c>
-      <c r="B15" s="1">
+      <c r="B15" s="8">
         <v>10.8556623297339</v>
       </c>
-      <c r="C15" s="1">
+      <c r="C15" s="8">
         <v>8.63118918675314</v>
       </c>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16" s="1">
+      <c r="A16" s="8">
         <v>7000</v>
       </c>
-      <c r="B16" s="1">
+      <c r="B16" s="8">
         <v>8.09627532288045</v>
       </c>
-      <c r="C16" s="1">
+      <c r="C16" s="8">
         <v>5.88974145850908</v>
       </c>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="1">
+      <c r="A17" s="8">
         <v>8000</v>
       </c>
-      <c r="B17" s="1">
+      <c r="B17" s="8">
         <v>6.24711996871022</v>
       </c>
-      <c r="C17" s="1">
+      <c r="C17" s="8">
         <v>4.00347341520497</v>
       </c>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="1">
+      <c r="A18" s="8">
         <v>9000</v>
       </c>
-      <c r="B18" s="1">
+      <c r="B18" s="8">
         <v>4.59466913524096</v>
       </c>
-      <c r="C18" s="1">
+      <c r="C18" s="8">
         <v>2.68891979374212</v>
       </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="1">
+      <c r="A19" s="8">
         <v>10000</v>
       </c>
-      <c r="B19" s="1">
+      <c r="B19" s="8">
         <v>3.18605131274389</v>
       </c>
-      <c r="C19" s="1">
+      <c r="C19" s="8">
         <v>2.03204954934883</v>
       </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="1">
+      <c r="A20" s="8">
         <v>12000</v>
       </c>
-      <c r="B20" s="1">
+      <c r="B20" s="8">
         <v>1.66125149425652</v>
       </c>
-      <c r="C20" s="1">
+      <c r="C20" s="8">
         <v>0.83602281262186</v>
       </c>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="1">
+      <c r="A21" s="8">
         <v>14000</v>
       </c>
-      <c r="B21" s="1">
+      <c r="B21" s="8">
         <v>0.690316191143309</v>
       </c>
-      <c r="C21" s="1">
+      <c r="C21" s="8">
         <v>0.287463065366724</v>
       </c>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" s="1">
+      <c r="A22" s="8">
         <v>16000</v>
       </c>
-      <c r="B22" s="1">
+      <c r="B22" s="8">
         <v>0.23450610168528</v>
       </c>
-      <c r="C22" s="1">
+      <c r="C22" s="8">
         <v>0.0565429890555922</v>
       </c>
     </row>
     <row r="23" spans="1:3">
-      <c r="A23" s="1">
+      <c r="A23" s="8">
         <v>18000</v>
       </c>
-      <c r="B23" s="1">
+      <c r="B23" s="8">
         <v>0.031765358840808</v>
       </c>
-      <c r="C23" s="1">
+      <c r="C23" s="8">
         <v>0.0053712956876167</v>
       </c>
     </row>
     <row r="24" spans="1:3">
-      <c r="A24" s="1">
+      <c r="A24" s="8">
         <v>20000</v>
       </c>
-      <c r="B24" s="1">
+      <c r="B24" s="8">
         <v>0.00360969581465155</v>
       </c>
-      <c r="C24" s="1">
+      <c r="C24" s="8">
         <v>0.00022718952223407</v>
       </c>
     </row>
     <row r="25" spans="1:3">
-      <c r="A25" s="1">
+      <c r="A25" s="8">
         <v>25000</v>
       </c>
-      <c r="B25" s="2">
+      <c r="B25" s="9">
         <v>0.000642847080302715</v>
       </c>
-      <c r="C25" s="2">
+      <c r="C25" s="9">
         <v>1.76141349641056e-6</v>
       </c>
     </row>
     <row r="26" spans="1:3">
-      <c r="A26" s="1">
+      <c r="A26" s="8">
         <v>30000</v>
       </c>
-      <c r="B26" s="2">
+      <c r="B26" s="9">
         <v>4.62846497462976e-6</v>
       </c>
-      <c r="C26" s="2">
+      <c r="C26" s="9">
         <v>5.61055997252424e-7</v>
       </c>
     </row>
     <row r="27" spans="1:3">
-      <c r="A27" s="1">
+      <c r="A27" s="8">
         <v>35000</v>
       </c>
-      <c r="B27" s="2">
+      <c r="B27" s="9">
         <v>1.88205858151491e-7</v>
       </c>
-      <c r="C27" s="2">
+      <c r="C27" s="9">
         <v>5.25164521647525e-7</v>
       </c>
     </row>
     <row r="28" spans="1:3">
-      <c r="A28" s="1">
+      <c r="A28" s="8">
         <v>40000</v>
       </c>
-      <c r="B28" s="2">
+      <c r="B28" s="9">
         <v>1.02666592880495e-7</v>
       </c>
-      <c r="C28" s="2">
+      <c r="C28" s="9">
         <v>5.09316333463516e-7</v>
       </c>
     </row>
     <row r="29" spans="1:3">
-      <c r="A29" s="1">
+      <c r="A29" s="8">
         <v>45000</v>
       </c>
-      <c r="B29" s="2">
+      <c r="B29" s="9">
         <v>8.69424169280819e-8</v>
       </c>
-      <c r="C29" s="2">
+      <c r="C29" s="9">
         <v>4.95319200837229e-7</v>
       </c>
     </row>
     <row r="30" spans="1:3">
-      <c r="A30" s="1">
+      <c r="A30" s="8">
         <v>50000</v>
       </c>
-      <c r="B30" s="2">
+      <c r="B30" s="9">
         <v>6.64341836653648e-8</v>
       </c>
-      <c r="C30" s="2">
+      <c r="C30" s="9">
         <v>4.85098154783258e-7</v>
       </c>
     </row>
     <row r="31" spans="1:3">
-      <c r="A31" s="1">
+      <c r="A31" s="8">
         <v>55000</v>
       </c>
-      <c r="B31" s="2">
+      <c r="B31" s="9">
         <v>5.79412421330971e-8</v>
       </c>
-      <c r="C31" s="2">
+      <c r="C31" s="9">
         <v>4.79512923163838e-7</v>
       </c>
     </row>
     <row r="32" spans="1:3">
-      <c r="A32" s="1">
+      <c r="A32" s="8">
         <v>60000</v>
       </c>
-      <c r="B32" s="2">
+      <c r="B32" s="9">
         <v>5.44245847322599e-8</v>
       </c>
-      <c r="C32" s="2">
+      <c r="C32" s="9">
         <v>4.738238825297e-7</v>
       </c>
     </row>
     <row r="33" spans="1:3">
-      <c r="A33" s="1">
+      <c r="A33" s="8">
         <v>65000</v>
       </c>
-      <c r="B33" s="2">
+      <c r="B33" s="9">
         <v>5.30089291572721e-8</v>
       </c>
-      <c r="C33" s="2">
+      <c r="C33" s="9">
         <v>4.6572813268142e-7</v>
       </c>
     </row>
     <row r="34" spans="1:3">
-      <c r="A34" s="1">
+      <c r="A34" s="8">
         <v>70000</v>
       </c>
-      <c r="B34" s="2">
+      <c r="B34" s="9">
         <v>5.26091215391488e-8</v>
       </c>
-      <c r="C34" s="2">
+      <c r="C34" s="9">
         <v>4.61584346282961e-7</v>
       </c>
     </row>
     <row r="35" spans="1:3">
-      <c r="A35" s="1">
+      <c r="A35" s="8">
         <v>75000</v>
       </c>
-      <c r="B35" s="2">
+      <c r="B35" s="9">
         <v>5.2205444944775e-8</v>
       </c>
-      <c r="C35" s="2">
+      <c r="C35" s="9">
         <v>4.59081194250643e-7</v>
       </c>
     </row>
     <row r="36" spans="1:3">
-      <c r="A36" s="1">
+      <c r="A36" s="8">
         <v>80000</v>
       </c>
-      <c r="B36" s="2">
+      <c r="B36" s="9">
         <v>5.13120357936713e-8</v>
       </c>
-      <c r="C36" s="2">
+      <c r="C36" s="9">
         <v>4.57058272615995e-7</v>
       </c>
     </row>
     <row r="37" spans="1:3">
-      <c r="A37" s="1">
+      <c r="A37" s="8">
         <v>85000</v>
       </c>
-      <c r="B37" s="2">
+      <c r="B37" s="9">
         <v>5.02727481688225e-8</v>
       </c>
-      <c r="C37" s="2">
+      <c r="C37" s="9">
         <v>4.56680001121867e-7</v>
       </c>
     </row>
     <row r="38" spans="1:3">
-      <c r="A38" s="1">
+      <c r="A38" s="8">
         <v>90000</v>
       </c>
-      <c r="B38" s="2">
+      <c r="B38" s="9">
         <v>4.99808233200838e-8</v>
       </c>
-      <c r="C38" s="2">
+      <c r="C38" s="9">
         <v>4.52262791981183e-7</v>
       </c>
     </row>
     <row r="39" spans="1:3">
-      <c r="A39" s="1">
+      <c r="A39" s="8">
         <v>95000</v>
       </c>
-      <c r="B39" s="2">
+      <c r="B39" s="9">
         <v>4.94209647428078e-8</v>
       </c>
-      <c r="C39" s="2">
+      <c r="C39" s="9">
         <v>4.49156522890348e-7</v>
       </c>
     </row>
     <row r="40" spans="1:3">
-      <c r="A40" s="1">
+      <c r="A40" s="8">
         <v>100000</v>
       </c>
-      <c r="B40" s="2">
+      <c r="B40" s="9">
         <v>4.9239995547623e-8</v>
       </c>
-      <c r="C40" s="2">
+      <c r="C40" s="9">
         <v>4.48731756748088e-7</v>
       </c>
     </row>
     <row r="41" spans="1:3">
-      <c r="A41" s="1">
+      <c r="A41" s="8">
         <v>150000</v>
       </c>
-      <c r="B41" s="2">
+      <c r="B41" s="9">
         <v>4.56139347448925e-8</v>
       </c>
-      <c r="C41" s="2">
+      <c r="C41" s="9">
         <v>4.35870238959523e-7</v>
       </c>
     </row>
     <row r="42" spans="1:3">
-      <c r="A42" s="1">
+      <c r="A42" s="8">
         <v>200000</v>
       </c>
-      <c r="B42" s="2">
+      <c r="B42" s="9">
         <v>4.40661833067679e-8</v>
       </c>
-      <c r="C42" s="2">
+      <c r="C42" s="9">
         <v>4.19069224619761e-7</v>
       </c>
     </row>
     <row r="43" spans="1:3">
-      <c r="A43" s="1">
+      <c r="A43" s="8">
         <v>250000</v>
       </c>
-      <c r="B43" s="2">
+      <c r="B43" s="9">
         <v>4.29445736926936e-8</v>
       </c>
-      <c r="C43" s="2">
+      <c r="C43" s="9">
         <v>4.11602063010718e-7</v>
       </c>
     </row>
     <row r="44" spans="1:3">
-      <c r="A44" s="1">
+      <c r="A44" s="8">
         <v>300000</v>
       </c>
-      <c r="B44" s="2">
+      <c r="B44" s="9">
         <v>4.23020510709193e-8</v>
       </c>
-      <c r="C44" s="2">
+      <c r="C44" s="9">
         <v>4.0812686656011e-7</v>
       </c>
     </row>
     <row r="45" spans="1:3">
-      <c r="A45" s="1">
+      <c r="A45" s="8">
         <v>350000</v>
       </c>
-      <c r="B45" s="2">
+      <c r="B45" s="9">
         <v>4.17305799516043e-8</v>
       </c>
-      <c r="C45" s="2">
+      <c r="C45" s="9">
         <v>4.01165771393152e-7</v>
       </c>
     </row>
     <row r="46" spans="1:3">
-      <c r="A46" s="1">
+      <c r="A46" s="8">
         <v>400000</v>
       </c>
-      <c r="B46" s="2">
+      <c r="B46" s="9">
         <v>4.15389889241168e-8</v>
       </c>
-      <c r="C46" s="2">
+      <c r="C46" s="9">
         <v>3.95597806814862e-7</v>
       </c>
     </row>
     <row r="47" spans="1:3">
-      <c r="A47" s="1">
+      <c r="A47" s="8">
         <v>450000</v>
       </c>
-      <c r="B47" s="2">
+      <c r="B47" s="9">
         <v>4.12761388446369e-8</v>
       </c>
-      <c r="C47" s="2">
+      <c r="C47" s="9">
         <v>3.92892663967359e-7</v>
       </c>
     </row>
     <row r="48" spans="1:3">
-      <c r="A48" s="1">
+      <c r="A48" s="8">
         <v>500000</v>
       </c>
-      <c r="B48" s="2">
+      <c r="B48" s="9">
         <v>4.06636272032301e-8</v>
       </c>
-      <c r="C48" s="2">
+      <c r="C48" s="9">
         <v>3.91089439091274e-7</v>
       </c>
     </row>
     <row r="49" spans="1:3">
-      <c r="A49" s="1">
+      <c r="A49" s="8">
         <v>550000</v>
       </c>
-      <c r="B49" s="2">
+      <c r="B49" s="9">
         <v>4.00849189219343e-8</v>
       </c>
-      <c r="C49" s="2">
+      <c r="C49" s="9">
         <v>3.86012475530606e-7</v>
       </c>
     </row>
     <row r="50" spans="1:3">
-      <c r="A50" s="1">
+      <c r="A50" s="8">
         <v>600000</v>
       </c>
-      <c r="B50" s="2">
+      <c r="B50" s="9">
         <v>4.00004812206589e-8</v>
       </c>
-      <c r="C50" s="2">
+      <c r="C50" s="9">
         <v>3.82765623641034e-7</v>
       </c>
     </row>
     <row r="51" spans="1:3">
-      <c r="A51" s="1">
+      <c r="A51" s="8">
         <v>650000</v>
       </c>
-      <c r="B51" s="2">
+      <c r="B51" s="9">
         <v>3.97642005367515e-8</v>
       </c>
-      <c r="C51" s="2">
+      <c r="C51" s="9">
         <v>3.80613700912135e-7</v>
       </c>
     </row>
     <row r="52" spans="1:3">
-      <c r="A52" s="1">
+      <c r="A52" s="8">
         <v>700000</v>
       </c>
-      <c r="B52" s="2">
+      <c r="B52" s="9">
         <v>3.97360089721132e-8</v>
       </c>
-      <c r="C52" s="2">
+      <c r="C52" s="9">
         <v>3.77013778773971e-7</v>
       </c>
     </row>
     <row r="53" spans="1:3">
-      <c r="A53" s="1">
+      <c r="A53" s="8">
         <v>750000</v>
       </c>
-      <c r="B53" s="2">
+      <c r="B53" s="9">
         <v>3.94537615022727e-8</v>
       </c>
-      <c r="C53" s="2">
+      <c r="C53" s="9">
         <v>3.7503328272237e-7</v>
       </c>
     </row>
     <row r="54" spans="1:3">
-      <c r="A54" s="1">
+      <c r="A54" s="8">
         <v>800000</v>
       </c>
-      <c r="B54" s="2">
+      <c r="B54" s="9">
         <v>3.92736110654823e-8</v>
       </c>
-      <c r="C54" s="2">
+      <c r="C54" s="9">
         <v>3.68784213762296e-7</v>
       </c>
     </row>
     <row r="55" spans="1:3">
-      <c r="A55" s="1">
+      <c r="A55" s="8">
         <v>850000</v>
       </c>
-      <c r="B55" s="2">
+      <c r="B55" s="9">
         <v>3.92373623014918e-8</v>
       </c>
-      <c r="C55" s="2">
+      <c r="C55" s="9">
         <v>3.67256598465814e-7</v>
       </c>
     </row>
     <row r="56" spans="1:3">
-      <c r="A56" s="1">
+      <c r="A56" s="8">
         <v>900000</v>
       </c>
-      <c r="B56" s="2">
+      <c r="B56" s="9">
         <v>3.88119806160602e-8</v>
       </c>
-      <c r="C56" s="2">
+      <c r="C56" s="9">
         <v>3.67029361427739e-7</v>
       </c>
     </row>
     <row r="57" spans="1:3">
-      <c r="A57" s="1">
+      <c r="A57" s="8">
         <v>950000</v>
       </c>
-      <c r="B57" s="2">
+      <c r="B57" s="9">
         <v>3.85758952603509e-8</v>
       </c>
-      <c r="C57" s="2">
+      <c r="C57" s="9">
         <v>3.67029361427739e-7</v>
       </c>
     </row>
     <row r="58" spans="1:3">
-      <c r="A58" s="1">
+      <c r="A58" s="8">
         <v>1000000</v>
       </c>
-      <c r="B58" s="2">
+      <c r="B58" s="9">
         <v>3.83429629380316e-8</v>
       </c>
-      <c r="C58" s="2">
+      <c r="C58" s="9">
         <v>3.65596866984674e-7</v>
       </c>
     </row>
     <row r="76" spans="1:8">
-      <c r="A76" s="1" t="s">
+      <c r="A76" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B76" s="1"/>
-      <c r="C76" s="1"/>
-      <c r="D76" s="1"/>
-      <c r="E76" s="1"/>
-      <c r="F76" s="1"/>
-      <c r="G76" s="1"/>
-      <c r="H76" s="1"/>
+      <c r="B76" s="8"/>
+      <c r="C76" s="8"/>
+      <c r="D76" s="8"/>
+      <c r="E76" s="8"/>
+      <c r="F76" s="8"/>
+      <c r="G76" s="8"/>
+      <c r="H76" s="8"/>
     </row>
     <row r="77" spans="1:8">
-      <c r="A77" s="1" t="s">
+      <c r="A77" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="B77" s="1"/>
-      <c r="C77" s="1"/>
-      <c r="D77" s="1"/>
-      <c r="E77" s="1"/>
-      <c r="F77" s="1"/>
-      <c r="G77" s="1"/>
-      <c r="H77" s="1"/>
+      <c r="B77" s="8"/>
+      <c r="C77" s="8"/>
+      <c r="D77" s="8"/>
+      <c r="E77" s="8"/>
+      <c r="F77" s="8"/>
+      <c r="G77" s="8"/>
+      <c r="H77" s="8"/>
     </row>
     <row r="78" spans="1:8">
-      <c r="A78" s="1" t="s">
+      <c r="A78" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B78" s="1"/>
-      <c r="C78" s="1"/>
-      <c r="D78" s="1"/>
-      <c r="E78" s="1"/>
-      <c r="F78" s="1"/>
-      <c r="G78" s="1"/>
-      <c r="H78" s="1"/>
+      <c r="B78" s="8"/>
+      <c r="C78" s="8"/>
+      <c r="D78" s="8"/>
+      <c r="E78" s="8"/>
+      <c r="F78" s="8"/>
+      <c r="G78" s="8"/>
+      <c r="H78" s="8"/>
     </row>
     <row r="79" spans="1:8">
-      <c r="A79" s="1" t="s">
+      <c r="A79" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B79" s="1"/>
-      <c r="C79" s="1"/>
-      <c r="D79" s="1"/>
-      <c r="E79" s="1"/>
-      <c r="F79" s="1"/>
-      <c r="G79" s="1"/>
-      <c r="H79" s="1"/>
+      <c r="B79" s="8"/>
+      <c r="C79" s="8"/>
+      <c r="D79" s="8"/>
+      <c r="E79" s="8"/>
+      <c r="F79" s="8"/>
+      <c r="G79" s="8"/>
+      <c r="H79" s="8"/>
     </row>
     <row r="80" spans="1:8">
-      <c r="A80" s="1" t="s">
+      <c r="A80" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="B80" s="1"/>
-      <c r="C80" s="1"/>
-      <c r="D80" s="1"/>
-      <c r="E80" s="1"/>
-      <c r="F80" s="1"/>
-      <c r="G80" s="1"/>
-      <c r="H80" s="1"/>
+      <c r="B80" s="8"/>
+      <c r="C80" s="8"/>
+      <c r="D80" s="8"/>
+      <c r="E80" s="8"/>
+      <c r="F80" s="8"/>
+      <c r="G80" s="8"/>
+      <c r="H80" s="8"/>
     </row>
     <row r="81" spans="1:8">
-      <c r="A81" s="1" t="s">
+      <c r="A81" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="B81" s="2"/>
-      <c r="C81" s="1"/>
-      <c r="D81" s="1"/>
-      <c r="E81" s="1"/>
-      <c r="F81" s="1"/>
-      <c r="G81" s="1"/>
-      <c r="H81" s="1"/>
+      <c r="B81" s="9"/>
+      <c r="C81" s="8"/>
+      <c r="D81" s="8"/>
+      <c r="E81" s="8"/>
+      <c r="F81" s="8"/>
+      <c r="G81" s="8"/>
+      <c r="H81" s="8"/>
     </row>
     <row r="82" spans="1:8">
-      <c r="A82" s="1" t="s">
+      <c r="A82" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="B82" s="2"/>
-      <c r="C82" s="1"/>
-      <c r="D82" s="1"/>
-      <c r="E82" s="1"/>
-      <c r="F82" s="1"/>
-      <c r="G82" s="1"/>
-      <c r="H82" s="1"/>
+      <c r="B82" s="9"/>
+      <c r="C82" s="8"/>
+      <c r="D82" s="8"/>
+      <c r="E82" s="8"/>
+      <c r="F82" s="8"/>
+      <c r="G82" s="8"/>
+      <c r="H82" s="8"/>
     </row>
     <row r="83" spans="1:8">
-      <c r="A83" s="1" t="s">
+      <c r="A83" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="B83" s="2"/>
-      <c r="C83" s="1"/>
-      <c r="D83" s="1"/>
-      <c r="E83" s="1"/>
-      <c r="F83" s="1"/>
-      <c r="G83" s="1"/>
-      <c r="H83" s="1"/>
+      <c r="B83" s="9"/>
+      <c r="C83" s="8"/>
+      <c r="D83" s="8"/>
+      <c r="E83" s="8"/>
+      <c r="F83" s="8"/>
+      <c r="G83" s="8"/>
+      <c r="H83" s="8"/>
     </row>
     <row r="84" spans="1:8">
-      <c r="A84" s="1" t="s">
+      <c r="A84" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="B84" s="2"/>
-      <c r="C84" s="1"/>
-      <c r="D84" s="1"/>
-      <c r="E84" s="1"/>
-      <c r="F84" s="1"/>
-      <c r="G84" s="1"/>
-      <c r="H84" s="1"/>
+      <c r="B84" s="9"/>
+      <c r="C84" s="8"/>
+      <c r="D84" s="8"/>
+      <c r="E84" s="8"/>
+      <c r="F84" s="8"/>
+      <c r="G84" s="8"/>
+      <c r="H84" s="8"/>
     </row>
     <row r="85" spans="1:1">
       <c r="A85" t="s">
@@ -16994,8 +17036,8 @@
   <sheetPr/>
   <dimension ref="A1:K87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A57" workbookViewId="0">
-      <selection activeCell="A87" sqref="A87"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="H38" sqref="H38:H39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -17005,873 +17047,873 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="8" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="1">
+      <c r="A2" s="8">
         <v>5</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2" s="8">
         <v>4615.19585515303</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2" s="8">
         <v>2398.10428280559</v>
       </c>
     </row>
     <row r="3" spans="1:11">
-      <c r="A3" s="1">
+      <c r="A3" s="8">
         <v>50</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="9">
         <v>7.67201578967592</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="8">
         <v>1400.3019888255</v>
       </c>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="10"/>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="1">
+      <c r="A4" s="8">
         <v>100</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="9">
         <v>2.40616668467215</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="8">
         <v>889.924345316593</v>
       </c>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="10"/>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="1">
+      <c r="A5" s="8">
         <v>500</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="9">
         <v>1.27344977714776</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" s="8">
         <v>1.65307538947129</v>
       </c>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="10"/>
+      <c r="K5" s="10"/>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="1">
+      <c r="A6" s="8">
         <v>1000</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="9">
         <v>1.18158961569529</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="8">
         <v>1.11586608426754</v>
       </c>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="10"/>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="1">
+      <c r="A7" s="8">
         <v>1500</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7" s="8">
         <v>1.03163527407983</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7" s="8">
         <v>1.06704312474892</v>
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="1">
+      <c r="A8" s="8">
         <v>2000</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B8" s="8">
         <v>0.779669415554832</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8" s="8">
         <v>0.903257137962836</v>
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="1">
+      <c r="A9" s="8">
         <v>2500</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B9" s="8">
         <v>0.704280116734439</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C9" s="8">
         <v>0.87468097278475</v>
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="1">
+      <c r="A10" s="8">
         <v>3000</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B10" s="8">
         <v>0.679620089074629</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C10" s="8">
         <v>0.860105429991133</v>
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="1">
+      <c r="A11" s="8">
         <v>3500</v>
       </c>
-      <c r="B11" s="1">
+      <c r="B11" s="8">
         <v>0.668547784776113</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C11" s="8">
         <v>0.849776014551202</v>
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="1">
+      <c r="A12" s="8">
         <v>4000</v>
       </c>
-      <c r="B12" s="1">
+      <c r="B12" s="8">
         <v>0.547622916370295</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C12" s="8">
         <v>0.824800985952973</v>
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="1">
+      <c r="A13" s="8">
         <v>4500</v>
       </c>
-      <c r="B13" s="1">
+      <c r="B13" s="8">
         <v>0.503258287739395</v>
       </c>
-      <c r="C13" s="1">
+      <c r="C13" s="8">
         <v>0.729721850336765</v>
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="1">
+      <c r="A14" s="8">
         <v>5000</v>
       </c>
-      <c r="B14" s="1">
+      <c r="B14" s="8">
         <v>0.474783502336998</v>
       </c>
-      <c r="C14" s="1">
+      <c r="C14" s="8">
         <v>0.71840454689746</v>
       </c>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" s="1">
+      <c r="A15" s="8">
         <v>6000</v>
       </c>
-      <c r="B15" s="1">
+      <c r="B15" s="8">
         <v>0.45158813715657</v>
       </c>
-      <c r="C15" s="1">
+      <c r="C15" s="8">
         <v>0.595088053339316</v>
       </c>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16" s="1">
+      <c r="A16" s="8">
         <v>7000</v>
       </c>
-      <c r="B16" s="1">
+      <c r="B16" s="8">
         <v>0.245741022873755</v>
       </c>
-      <c r="C16" s="1">
+      <c r="C16" s="8">
         <v>0.488324644254108</v>
       </c>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="1">
+      <c r="A17" s="8">
         <v>8000</v>
       </c>
-      <c r="B17" s="1">
+      <c r="B17" s="8">
         <v>0.231730392318548</v>
       </c>
-      <c r="C17" s="1">
+      <c r="C17" s="8">
         <v>0.462527914409484</v>
       </c>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="1">
+      <c r="A18" s="8">
         <v>9000</v>
       </c>
-      <c r="B18" s="1">
+      <c r="B18" s="8">
         <v>0.228534054165552</v>
       </c>
-      <c r="C18" s="1">
+      <c r="C18" s="8">
         <v>0.434734393033637</v>
       </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="1">
+      <c r="A19" s="8">
         <v>10000</v>
       </c>
-      <c r="B19" s="1">
+      <c r="B19" s="8">
         <v>0.215314151277335</v>
       </c>
-      <c r="C19" s="1">
+      <c r="C19" s="8">
         <v>0.252979875041548</v>
       </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="1">
+      <c r="A20" s="8">
         <v>12000</v>
       </c>
-      <c r="B20" s="1">
+      <c r="B20" s="8">
         <v>0.198503425298101</v>
       </c>
-      <c r="C20" s="1">
+      <c r="C20" s="8">
         <v>0.238588548296359</v>
       </c>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="1">
+      <c r="A21" s="8">
         <v>14000</v>
       </c>
-      <c r="B21" s="1">
+      <c r="B21" s="8">
         <v>0.152808314953176</v>
       </c>
-      <c r="C21" s="1">
+      <c r="C21" s="8">
         <v>0.227571405191586</v>
       </c>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" s="1">
+      <c r="A22" s="8">
         <v>16000</v>
       </c>
-      <c r="B22" s="1">
+      <c r="B22" s="8">
         <v>0.137641936900013</v>
       </c>
-      <c r="C22" s="1">
+      <c r="C22" s="8">
         <v>0.196503153967997</v>
       </c>
     </row>
     <row r="23" spans="1:3">
-      <c r="A23" s="1">
+      <c r="A23" s="8">
         <v>18000</v>
       </c>
-      <c r="B23" s="1">
+      <c r="B23" s="8">
         <v>0.107799633681649</v>
       </c>
-      <c r="C23" s="1">
+      <c r="C23" s="8">
         <v>0.159014891441181</v>
       </c>
     </row>
     <row r="24" spans="1:3">
-      <c r="A24" s="1">
+      <c r="A24" s="8">
         <v>20000</v>
       </c>
-      <c r="B24" s="1">
+      <c r="B24" s="8">
         <v>0.106800583112845</v>
       </c>
-      <c r="C24" s="1">
+      <c r="C24" s="8">
         <v>0.15644981367053</v>
       </c>
     </row>
     <row r="25" spans="1:3">
-      <c r="A25" s="1">
+      <c r="A25" s="8">
         <v>25000</v>
       </c>
-      <c r="B25" s="1">
+      <c r="B25" s="8">
         <v>0.0609799159742605</v>
       </c>
-      <c r="C25" s="1">
+      <c r="C25" s="8">
         <v>0.137756494778991</v>
       </c>
     </row>
     <row r="26" spans="1:3">
-      <c r="A26" s="1">
+      <c r="A26" s="8">
         <v>30000</v>
       </c>
-      <c r="B26" s="2">
+      <c r="B26" s="9">
         <v>0.0305380502868577</v>
       </c>
-      <c r="C26" s="1">
+      <c r="C26" s="8">
         <v>0.107291794598596</v>
       </c>
     </row>
     <row r="27" spans="1:11">
-      <c r="A27" s="1">
+      <c r="A27" s="8">
         <v>35000</v>
       </c>
-      <c r="B27" s="2">
+      <c r="B27" s="9">
         <v>0.0305123048124096</v>
       </c>
-      <c r="C27" s="1">
+      <c r="C27" s="8">
         <v>0.0914136716280672</v>
       </c>
-      <c r="K27" s="3"/>
+      <c r="K27" s="10"/>
     </row>
     <row r="28" spans="1:11">
-      <c r="A28" s="1">
+      <c r="A28" s="8">
         <v>40000</v>
       </c>
-      <c r="B28" s="2">
+      <c r="B28" s="9">
         <v>0.0305122946455864</v>
       </c>
-      <c r="C28" s="1">
+      <c r="C28" s="8">
         <v>0.0609404356693277</v>
       </c>
-      <c r="K28" s="3"/>
+      <c r="K28" s="10"/>
     </row>
     <row r="29" spans="1:11">
-      <c r="A29" s="1">
+      <c r="A29" s="8">
         <v>45000</v>
       </c>
-      <c r="B29" s="2">
+      <c r="B29" s="9">
         <v>0.0305112427105121</v>
       </c>
-      <c r="C29" s="1">
+      <c r="C29" s="8">
         <v>0.030606596351943</v>
       </c>
-      <c r="K29" s="3"/>
+      <c r="K29" s="10"/>
     </row>
     <row r="30" spans="1:11">
-      <c r="A30" s="1">
+      <c r="A30" s="8">
         <v>50000</v>
       </c>
-      <c r="B30" s="2">
+      <c r="B30" s="9">
         <v>0.0305112130928785</v>
       </c>
-      <c r="C30" s="1">
+      <c r="C30" s="8">
         <v>0.0153137654156791</v>
       </c>
-      <c r="K30" s="3"/>
+      <c r="K30" s="10"/>
     </row>
     <row r="31" spans="1:11">
-      <c r="A31" s="1">
+      <c r="A31" s="8">
         <v>55000</v>
       </c>
-      <c r="B31" s="2">
+      <c r="B31" s="9">
         <v>0.0304636875280867</v>
       </c>
-      <c r="C31" s="1">
+      <c r="C31" s="8">
         <v>0.015231719899726</v>
       </c>
-      <c r="K31" s="3"/>
+      <c r="K31" s="10"/>
     </row>
     <row r="32" spans="1:11">
-      <c r="A32" s="1">
+      <c r="A32" s="8">
         <v>60000</v>
       </c>
-      <c r="B32" s="2">
+      <c r="B32" s="9">
         <v>0.0170400958396383</v>
       </c>
-      <c r="C32" s="1">
+      <c r="C32" s="8">
         <v>0.0152316660151069</v>
       </c>
-      <c r="J32" s="3"/>
-      <c r="K32" s="3"/>
+      <c r="J32" s="10"/>
+      <c r="K32" s="10"/>
     </row>
     <row r="33" spans="1:11">
-      <c r="A33" s="1">
+      <c r="A33" s="8">
         <v>65000</v>
       </c>
-      <c r="B33" s="2">
+      <c r="B33" s="9">
         <v>0.0152317842777705</v>
       </c>
-      <c r="C33" s="1">
+      <c r="C33" s="8">
         <v>0.015231665767305</v>
       </c>
-      <c r="J33" s="3"/>
-      <c r="K33" s="3"/>
+      <c r="J33" s="10"/>
+      <c r="K33" s="10"/>
     </row>
     <row r="34" spans="1:11">
-      <c r="A34" s="1">
+      <c r="A34" s="8">
         <v>70000</v>
       </c>
-      <c r="B34" s="2">
+      <c r="B34" s="9">
         <v>0.0152317701832423</v>
       </c>
-      <c r="C34" s="1">
+      <c r="C34" s="8">
         <v>0.0152316655516235</v>
       </c>
-      <c r="J34" s="3"/>
-      <c r="K34" s="3"/>
+      <c r="J34" s="10"/>
+      <c r="K34" s="10"/>
     </row>
     <row r="35" spans="1:11">
-      <c r="A35" s="1">
+      <c r="A35" s="8">
         <v>75000</v>
       </c>
-      <c r="B35" s="2">
+      <c r="B35" s="9">
         <v>5.7741351684592e-6</v>
       </c>
-      <c r="C35" s="1">
+      <c r="C35" s="8">
         <v>0.0152316655077362</v>
       </c>
-      <c r="J35" s="3"/>
-      <c r="K35" s="3"/>
+      <c r="J35" s="10"/>
+      <c r="K35" s="10"/>
     </row>
     <row r="36" spans="1:11">
-      <c r="A36" s="1">
+      <c r="A36" s="8">
         <v>80000</v>
       </c>
-      <c r="B36" s="2">
+      <c r="B36" s="9">
         <v>2.46826084832116e-6</v>
       </c>
-      <c r="C36" s="1">
+      <c r="C36" s="8">
         <v>0.0152316654916006</v>
       </c>
-      <c r="J36" s="3"/>
-      <c r="K36" s="3"/>
+      <c r="J36" s="10"/>
+      <c r="K36" s="10"/>
     </row>
     <row r="37" spans="1:11">
-      <c r="A37" s="1">
+      <c r="A37" s="8">
         <v>85000</v>
       </c>
-      <c r="B37" s="2">
+      <c r="B37" s="9">
         <v>5.57170021734312e-8</v>
       </c>
-      <c r="C37" s="2">
+      <c r="C37" s="9">
         <v>0.0152316654723539</v>
       </c>
-      <c r="J37" s="3"/>
-      <c r="K37" s="3"/>
+      <c r="J37" s="10"/>
+      <c r="K37" s="10"/>
     </row>
     <row r="38" spans="1:11">
-      <c r="A38" s="1">
+      <c r="A38" s="8">
         <v>90000</v>
       </c>
-      <c r="B38" s="2">
+      <c r="B38" s="9">
         <v>5.32400540701006e-8</v>
       </c>
-      <c r="C38" s="2">
+      <c r="C38" s="9">
         <v>6.26607038655483e-5</v>
       </c>
-      <c r="J38" s="3"/>
-      <c r="K38" s="3"/>
+      <c r="J38" s="10"/>
+      <c r="K38" s="10"/>
     </row>
     <row r="39" spans="1:11">
-      <c r="A39" s="1">
+      <c r="A39" s="8">
         <v>95000</v>
       </c>
-      <c r="B39" s="2">
+      <c r="B39" s="9">
         <v>5.30506747365449e-8</v>
       </c>
-      <c r="C39" s="2">
+      <c r="C39" s="9">
         <v>4.06083971248642e-8</v>
       </c>
-      <c r="J39" s="3"/>
-      <c r="K39" s="3"/>
+      <c r="J39" s="10"/>
+      <c r="K39" s="10"/>
     </row>
     <row r="40" spans="1:11">
-      <c r="A40" s="1">
+      <c r="A40" s="8">
         <v>100000</v>
       </c>
-      <c r="B40" s="2">
+      <c r="B40" s="9">
         <v>5.30506747365449e-8</v>
       </c>
-      <c r="C40" s="2">
+      <c r="C40" s="9">
         <v>1.20792333764315e-10</v>
       </c>
-      <c r="I40" s="3"/>
-      <c r="J40" s="3"/>
-      <c r="K40" s="3"/>
+      <c r="I40" s="10"/>
+      <c r="J40" s="10"/>
+      <c r="K40" s="10"/>
     </row>
     <row r="41" spans="1:11">
-      <c r="A41" s="1">
+      <c r="A41" s="8">
         <v>150000</v>
       </c>
-      <c r="B41" s="2">
+      <c r="B41" s="9">
         <v>4.34175598309097e-9</v>
       </c>
-      <c r="C41" s="2">
+      <c r="C41" s="9">
         <v>8.63005301391471e-11</v>
       </c>
-      <c r="I41" s="3"/>
-      <c r="J41" s="3"/>
-      <c r="K41" s="3"/>
+      <c r="I41" s="10"/>
+      <c r="J41" s="10"/>
+      <c r="K41" s="10"/>
     </row>
     <row r="42" spans="1:11">
-      <c r="A42" s="1">
+      <c r="A42" s="8">
         <v>200000</v>
       </c>
-      <c r="B42" s="2">
+      <c r="B42" s="9">
         <v>3.36448913722792e-9</v>
       </c>
-      <c r="C42" s="2">
+      <c r="C42" s="9">
         <v>5.32134622009002e-11</v>
       </c>
-      <c r="I42" s="3"/>
-      <c r="J42" s="3"/>
-      <c r="K42" s="3"/>
+      <c r="I42" s="10"/>
+      <c r="J42" s="10"/>
+      <c r="K42" s="10"/>
     </row>
     <row r="43" spans="1:11">
-      <c r="A43" s="1">
+      <c r="A43" s="8">
         <v>250000</v>
       </c>
-      <c r="B43" s="2">
+      <c r="B43" s="9">
         <v>2.75891721068625e-9</v>
       </c>
-      <c r="C43" s="2">
+      <c r="C43" s="9">
         <v>4.52027359799832e-11</v>
       </c>
-      <c r="I43" s="3"/>
-      <c r="J43" s="3"/>
-      <c r="K43" s="3"/>
+      <c r="I43" s="10"/>
+      <c r="J43" s="10"/>
+      <c r="K43" s="10"/>
     </row>
     <row r="44" spans="1:11">
-      <c r="A44" s="1">
+      <c r="A44" s="8">
         <v>300000</v>
       </c>
-      <c r="B44" s="2">
+      <c r="B44" s="9">
         <v>2.27465478901891e-9</v>
       </c>
-      <c r="C44" s="2">
+      <c r="C44" s="9">
         <v>4.08481389807769e-11</v>
       </c>
-      <c r="I44" s="3"/>
-      <c r="J44" s="3"/>
-      <c r="K44" s="3"/>
+      <c r="I44" s="10"/>
+      <c r="J44" s="10"/>
+      <c r="K44" s="10"/>
     </row>
     <row r="45" spans="1:11">
-      <c r="A45" s="1">
+      <c r="A45" s="8">
         <v>350000</v>
       </c>
-      <c r="B45" s="2">
+      <c r="B45" s="9">
         <v>2.12756455537965e-9</v>
       </c>
-      <c r="C45" s="2">
+      <c r="C45" s="9">
         <v>3.62040237969772e-11</v>
       </c>
-      <c r="I45" s="3"/>
-      <c r="J45" s="3"/>
-      <c r="K45" s="3"/>
+      <c r="I45" s="10"/>
+      <c r="J45" s="10"/>
+      <c r="K45" s="10"/>
     </row>
     <row r="46" spans="1:11">
-      <c r="A46" s="1">
+      <c r="A46" s="8">
         <v>400000</v>
       </c>
-      <c r="B46" s="2">
+      <c r="B46" s="9">
         <v>1.81180023009465e-9</v>
       </c>
-      <c r="C46" s="2">
+      <c r="C46" s="9">
         <v>3.38294879991562e-11</v>
       </c>
-      <c r="I46" s="3"/>
-      <c r="J46" s="3"/>
-      <c r="K46" s="3"/>
+      <c r="I46" s="10"/>
+      <c r="J46" s="10"/>
+      <c r="K46" s="10"/>
     </row>
     <row r="47" spans="1:11">
-      <c r="A47" s="1">
+      <c r="A47" s="8">
         <v>450000</v>
       </c>
-      <c r="B47" s="2">
+      <c r="B47" s="9">
         <v>1.6079683223723e-9</v>
       </c>
-      <c r="C47" s="2">
+      <c r="C47" s="9">
         <v>2.8249638464054e-11</v>
       </c>
-      <c r="I47" s="3"/>
-      <c r="J47" s="3"/>
-      <c r="K47" s="3"/>
+      <c r="I47" s="10"/>
+      <c r="J47" s="10"/>
+      <c r="K47" s="10"/>
     </row>
     <row r="48" spans="1:11">
-      <c r="A48" s="1">
+      <c r="A48" s="8">
         <v>500000</v>
       </c>
-      <c r="B48" s="2">
+      <c r="B48" s="9">
         <v>1.45655449964629e-9</v>
       </c>
-      <c r="C48" s="2">
+      <c r="C48" s="9">
         <v>2.55066532757035e-11</v>
       </c>
-      <c r="I48" s="3"/>
-      <c r="J48" s="3"/>
-      <c r="K48" s="3"/>
+      <c r="I48" s="10"/>
+      <c r="J48" s="10"/>
+      <c r="K48" s="10"/>
     </row>
     <row r="49" spans="1:11">
-      <c r="A49" s="1">
+      <c r="A49" s="8">
         <v>550000</v>
       </c>
-      <c r="B49" s="2">
+      <c r="B49" s="9">
         <v>1.31327503487332e-9</v>
       </c>
-      <c r="C49" s="2">
+      <c r="C49" s="9">
         <v>2.30297852068362e-11</v>
       </c>
-      <c r="I49" s="3"/>
-      <c r="J49" s="3"/>
-      <c r="K49" s="3"/>
+      <c r="I49" s="10"/>
+      <c r="J49" s="10"/>
+      <c r="K49" s="10"/>
     </row>
     <row r="50" spans="1:11">
-      <c r="A50" s="1">
+      <c r="A50" s="8">
         <v>600000</v>
       </c>
-      <c r="B50" s="2">
+      <c r="B50" s="9">
         <v>1.29953070086051e-9</v>
       </c>
-      <c r="C50" s="2">
+      <c r="C50" s="9">
         <v>2.08014330631818e-11</v>
       </c>
-      <c r="I50" s="3"/>
-      <c r="J50" s="3"/>
-      <c r="K50" s="3"/>
+      <c r="I50" s="10"/>
+      <c r="J50" s="10"/>
+      <c r="K50" s="10"/>
     </row>
     <row r="51" spans="1:11">
-      <c r="A51" s="1">
+      <c r="A51" s="8">
         <v>650000</v>
       </c>
-      <c r="B51" s="2">
+      <c r="B51" s="9">
         <v>1.15539207904392e-9</v>
       </c>
-      <c r="C51" s="2">
+      <c r="C51" s="9">
         <v>2.07437545750082e-11</v>
       </c>
-      <c r="I51" s="3"/>
-      <c r="J51" s="3"/>
-      <c r="K51" s="3"/>
+      <c r="I51" s="10"/>
+      <c r="J51" s="10"/>
+      <c r="K51" s="10"/>
     </row>
     <row r="52" spans="1:11">
-      <c r="A52" s="1">
+      <c r="A52" s="8">
         <v>700000</v>
       </c>
-      <c r="B52" s="2">
+      <c r="B52" s="9">
         <v>1.07709870757285e-9</v>
       </c>
-      <c r="C52" s="2">
+      <c r="C52" s="9">
         <v>1.9537060538533e-11</v>
       </c>
-      <c r="I52" s="3"/>
-      <c r="J52" s="3"/>
-      <c r="K52" s="3"/>
+      <c r="I52" s="10"/>
+      <c r="J52" s="10"/>
+      <c r="K52" s="10"/>
     </row>
     <row r="53" spans="1:11">
-      <c r="A53" s="1">
+      <c r="A53" s="8">
         <v>750000</v>
       </c>
-      <c r="B53" s="2">
+      <c r="B53" s="9">
         <v>1.04717561150518e-9</v>
       </c>
-      <c r="C53" s="2">
+      <c r="C53" s="9">
         <v>1.63981796526359e-11</v>
       </c>
-      <c r="I53" s="3"/>
-      <c r="J53" s="3"/>
-      <c r="K53" s="3"/>
+      <c r="I53" s="10"/>
+      <c r="J53" s="10"/>
+      <c r="K53" s="10"/>
     </row>
     <row r="54" spans="1:11">
-      <c r="A54" s="1">
+      <c r="A54" s="8">
         <v>800000</v>
       </c>
-      <c r="B54" s="2">
+      <c r="B54" s="9">
         <v>1.01534922913929e-9</v>
       </c>
-      <c r="C54" s="2">
+      <c r="C54" s="9">
         <v>1.51790299850815e-11</v>
       </c>
-      <c r="I54" s="3"/>
-      <c r="J54" s="3"/>
-      <c r="K54" s="3"/>
+      <c r="I54" s="10"/>
+      <c r="J54" s="10"/>
+      <c r="K54" s="10"/>
     </row>
     <row r="55" spans="1:11">
-      <c r="A55" s="1">
+      <c r="A55" s="8">
         <v>850000</v>
       </c>
-      <c r="B55" s="2">
+      <c r="B55" s="9">
         <v>9.07343015804619e-10</v>
       </c>
-      <c r="C55" s="2">
+      <c r="C55" s="9">
         <v>1.45727498968495e-11</v>
       </c>
-      <c r="I55" s="3"/>
-      <c r="J55" s="3"/>
-      <c r="K55" s="3"/>
+      <c r="I55" s="10"/>
+      <c r="J55" s="10"/>
+      <c r="K55" s="10"/>
     </row>
     <row r="56" spans="1:11">
-      <c r="A56" s="1">
+      <c r="A56" s="8">
         <v>900000</v>
       </c>
-      <c r="B56" s="2">
+      <c r="B56" s="9">
         <v>8.83117930050369e-10</v>
       </c>
-      <c r="C56" s="2">
+      <c r="C56" s="9">
         <v>1.44098567861821e-11</v>
       </c>
-      <c r="I56" s="3"/>
-      <c r="J56" s="3"/>
-      <c r="K56" s="3"/>
+      <c r="I56" s="10"/>
+      <c r="J56" s="10"/>
+      <c r="K56" s="10"/>
     </row>
     <row r="57" spans="1:11">
-      <c r="A57" s="1">
+      <c r="A57" s="8">
         <v>950000</v>
       </c>
-      <c r="B57" s="2">
+      <c r="B57" s="9">
         <v>7.41407620111205e-10</v>
       </c>
-      <c r="C57" s="2">
+      <c r="C57" s="9">
         <v>1.36291862515681e-11</v>
       </c>
-      <c r="I57" s="3"/>
-      <c r="J57" s="3"/>
-      <c r="K57" s="3"/>
+      <c r="I57" s="10"/>
+      <c r="J57" s="10"/>
+      <c r="K57" s="10"/>
     </row>
     <row r="58" spans="1:11">
-      <c r="A58" s="1">
+      <c r="A58" s="8">
         <v>1000000</v>
       </c>
-      <c r="B58" s="2">
+      <c r="B58" s="9">
         <v>7.31332621775527e-10</v>
       </c>
-      <c r="C58" s="2">
+      <c r="C58" s="9">
         <v>1.33151569546256e-11</v>
       </c>
-      <c r="I58" s="3"/>
-      <c r="J58" s="3"/>
-      <c r="K58" s="3"/>
+      <c r="I58" s="10"/>
+      <c r="J58" s="10"/>
+      <c r="K58" s="10"/>
     </row>
     <row r="76" spans="1:9">
-      <c r="A76" s="1" t="s">
+      <c r="A76" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B76" s="1"/>
-      <c r="C76" s="1"/>
-      <c r="D76" s="1"/>
-      <c r="E76" s="1"/>
-      <c r="F76" s="1"/>
-      <c r="G76" s="1"/>
-      <c r="H76" s="1"/>
-      <c r="I76" s="1"/>
+      <c r="B76" s="8"/>
+      <c r="C76" s="8"/>
+      <c r="D76" s="8"/>
+      <c r="E76" s="8"/>
+      <c r="F76" s="8"/>
+      <c r="G76" s="8"/>
+      <c r="H76" s="8"/>
+      <c r="I76" s="8"/>
     </row>
     <row r="77" spans="1:9">
-      <c r="A77" s="1" t="s">
+      <c r="A77" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="B77" s="1"/>
-      <c r="C77" s="1"/>
-      <c r="D77" s="1"/>
-      <c r="E77" s="1"/>
-      <c r="F77" s="1"/>
-      <c r="G77" s="1"/>
-      <c r="H77" s="1"/>
-      <c r="I77" s="1"/>
+      <c r="B77" s="8"/>
+      <c r="C77" s="8"/>
+      <c r="D77" s="8"/>
+      <c r="E77" s="8"/>
+      <c r="F77" s="8"/>
+      <c r="G77" s="8"/>
+      <c r="H77" s="8"/>
+      <c r="I77" s="8"/>
     </row>
     <row r="78" spans="1:9">
-      <c r="A78" s="1" t="s">
+      <c r="A78" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B78" s="1"/>
-      <c r="C78" s="1"/>
-      <c r="D78" s="1"/>
-      <c r="E78" s="1"/>
-      <c r="F78" s="1"/>
-      <c r="G78" s="1"/>
-      <c r="H78" s="1"/>
-      <c r="I78" s="1"/>
+      <c r="B78" s="8"/>
+      <c r="C78" s="8"/>
+      <c r="D78" s="8"/>
+      <c r="E78" s="8"/>
+      <c r="F78" s="8"/>
+      <c r="G78" s="8"/>
+      <c r="H78" s="8"/>
+      <c r="I78" s="8"/>
     </row>
     <row r="79" spans="1:9">
-      <c r="A79" s="1" t="s">
+      <c r="A79" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B79" s="1"/>
-      <c r="C79" s="1"/>
-      <c r="D79" s="1"/>
-      <c r="E79" s="1"/>
-      <c r="F79" s="1"/>
-      <c r="G79" s="1"/>
-      <c r="H79" s="1"/>
-      <c r="I79" s="1"/>
+      <c r="B79" s="8"/>
+      <c r="C79" s="8"/>
+      <c r="D79" s="8"/>
+      <c r="E79" s="8"/>
+      <c r="F79" s="8"/>
+      <c r="G79" s="8"/>
+      <c r="H79" s="8"/>
+      <c r="I79" s="8"/>
     </row>
     <row r="80" spans="1:9">
-      <c r="A80" s="1" t="s">
+      <c r="A80" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="B80" s="1"/>
-      <c r="C80" s="1"/>
-      <c r="D80" s="1"/>
-      <c r="E80" s="1"/>
-      <c r="F80" s="1"/>
-      <c r="G80" s="1"/>
-      <c r="H80" s="1"/>
-      <c r="I80" s="1"/>
+      <c r="B80" s="8"/>
+      <c r="C80" s="8"/>
+      <c r="D80" s="8"/>
+      <c r="E80" s="8"/>
+      <c r="F80" s="8"/>
+      <c r="G80" s="8"/>
+      <c r="H80" s="8"/>
+      <c r="I80" s="8"/>
     </row>
     <row r="81" spans="1:9">
-      <c r="A81" s="1" t="s">
+      <c r="A81" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="B81" s="2"/>
-      <c r="C81" s="1"/>
-      <c r="D81" s="1"/>
-      <c r="E81" s="1"/>
-      <c r="F81" s="1"/>
-      <c r="G81" s="1"/>
-      <c r="H81" s="1"/>
-      <c r="I81" s="1"/>
+      <c r="B81" s="9"/>
+      <c r="C81" s="8"/>
+      <c r="D81" s="8"/>
+      <c r="E81" s="8"/>
+      <c r="F81" s="8"/>
+      <c r="G81" s="8"/>
+      <c r="H81" s="8"/>
+      <c r="I81" s="8"/>
     </row>
     <row r="82" spans="1:9">
-      <c r="A82" s="1" t="s">
+      <c r="A82" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="B82" s="2"/>
-      <c r="C82" s="1"/>
-      <c r="D82" s="1"/>
-      <c r="E82" s="1"/>
-      <c r="F82" s="1"/>
-      <c r="G82" s="1"/>
-      <c r="H82" s="1"/>
-      <c r="I82" s="1"/>
+      <c r="B82" s="9"/>
+      <c r="C82" s="8"/>
+      <c r="D82" s="8"/>
+      <c r="E82" s="8"/>
+      <c r="F82" s="8"/>
+      <c r="G82" s="8"/>
+      <c r="H82" s="8"/>
+      <c r="I82" s="8"/>
     </row>
     <row r="83" spans="1:9">
-      <c r="A83" s="1" t="s">
+      <c r="A83" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="B83" s="2"/>
-      <c r="C83" s="2"/>
-      <c r="D83" s="1"/>
-      <c r="E83" s="1"/>
-      <c r="F83" s="1"/>
-      <c r="G83" s="1"/>
-      <c r="H83" s="1"/>
-      <c r="I83" s="1"/>
+      <c r="B83" s="9"/>
+      <c r="C83" s="9"/>
+      <c r="D83" s="8"/>
+      <c r="E83" s="8"/>
+      <c r="F83" s="8"/>
+      <c r="G83" s="8"/>
+      <c r="H83" s="8"/>
+      <c r="I83" s="8"/>
     </row>
     <row r="84" spans="1:9">
-      <c r="A84" s="1" t="s">
+      <c r="A84" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="B84" s="2"/>
-      <c r="C84" s="1"/>
-      <c r="D84" s="1"/>
-      <c r="E84" s="1"/>
-      <c r="F84" s="1"/>
-      <c r="G84" s="1"/>
-      <c r="H84" s="1"/>
-      <c r="I84" s="1"/>
+      <c r="B84" s="9"/>
+      <c r="C84" s="8"/>
+      <c r="D84" s="8"/>
+      <c r="E84" s="8"/>
+      <c r="F84" s="8"/>
+      <c r="G84" s="8"/>
+      <c r="H84" s="8"/>
+      <c r="I84" s="8"/>
     </row>
     <row r="85" spans="1:9">
-      <c r="A85" s="1" t="s">
+      <c r="A85" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="B85" s="1"/>
-      <c r="C85" s="1"/>
-      <c r="D85" s="1"/>
-      <c r="E85" s="1"/>
-      <c r="F85" s="1"/>
-      <c r="G85" s="1"/>
-      <c r="H85" s="1"/>
-      <c r="I85" s="1"/>
+      <c r="B85" s="8"/>
+      <c r="C85" s="8"/>
+      <c r="D85" s="8"/>
+      <c r="E85" s="8"/>
+      <c r="F85" s="8"/>
+      <c r="G85" s="8"/>
+      <c r="H85" s="8"/>
+      <c r="I85" s="8"/>
     </row>
     <row r="86" spans="1:9">
-      <c r="A86" s="1"/>
-      <c r="B86" s="1"/>
-      <c r="C86" s="1"/>
-      <c r="D86" s="1"/>
-      <c r="E86" s="1"/>
-      <c r="F86" s="1"/>
-      <c r="G86" s="1"/>
-      <c r="H86" s="1"/>
-      <c r="I86" s="1"/>
+      <c r="A86" s="8"/>
+      <c r="B86" s="8"/>
+      <c r="C86" s="8"/>
+      <c r="D86" s="8"/>
+      <c r="E86" s="8"/>
+      <c r="F86" s="8"/>
+      <c r="G86" s="8"/>
+      <c r="H86" s="8"/>
+      <c r="I86" s="8"/>
     </row>
     <row r="87" spans="1:1">
       <c r="A87" t="s">
@@ -17883,4 +17925,175 @@
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="B2:I15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <cols>
+    <col min="3" max="3" width="17.75" customWidth="1"/>
+    <col min="4" max="9" width="8.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="3:9">
+      <c r="C2" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9">
+      <c r="B3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="3">
+        <v>0.0306920896796872</v>
+      </c>
+      <c r="E3" s="4">
+        <v>1.27897692436818e-15</v>
+      </c>
+      <c r="F3" s="4">
+        <v>4.09233876948704e-8</v>
+      </c>
+      <c r="G3" s="4">
+        <v>0.000127275662598549</v>
+      </c>
+      <c r="H3" s="4">
+        <v>4.9239995547623e-8</v>
+      </c>
+      <c r="I3" s="3">
+        <v>5.30506747365449e-8</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9">
+      <c r="B4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D4" s="4">
+        <v>0.000788976670214867</v>
+      </c>
+      <c r="E4" s="3">
+        <v>2.10036432690685e-13</v>
+      </c>
+      <c r="F4" s="3">
+        <v>5.88636604019573e-5</v>
+      </c>
+      <c r="G4" s="4">
+        <v>0.000127275663944601</v>
+      </c>
+      <c r="H4" s="3">
+        <v>3.65596866984674e-7</v>
+      </c>
+      <c r="I4" s="4">
+        <v>1.33151569546256e-11</v>
+      </c>
+    </row>
+    <row r="13" spans="3:9">
+      <c r="C13" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="I13" s="5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9">
+      <c r="B14" t="s">
+        <v>53</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D14" s="3">
+        <v>0.0306920896796872</v>
+      </c>
+      <c r="E14" s="4">
+        <v>1.27897692436818e-15</v>
+      </c>
+      <c r="F14" s="4">
+        <v>4.9239995547623e-8</v>
+      </c>
+      <c r="G14" s="6">
+        <v>4.09233876948704e-8</v>
+      </c>
+      <c r="H14" s="4">
+        <v>0.000127275662598549</v>
+      </c>
+      <c r="I14" s="3">
+        <v>5.30506747365449e-8</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9">
+      <c r="B15" t="s">
+        <v>56</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D15" s="4">
+        <v>6.77347067323808e-13</v>
+      </c>
+      <c r="E15" s="3">
+        <v>8.5265128291212e-14</v>
+      </c>
+      <c r="F15" s="3">
+        <v>3.03999584616576e-7</v>
+      </c>
+      <c r="G15" s="7">
+        <v>2.22140138592061e-9</v>
+      </c>
+      <c r="H15" s="4">
+        <v>0.000127275662634929</v>
+      </c>
+      <c r="I15" s="4">
+        <v>1.22444728974184e-14</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>